--- a/FLEX_RUNS.xlsx
+++ b/FLEX_RUNS.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kyroyo\rosetta-antibody-ddgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59099870-7E6A-4A9D-AC9E-FE4E92C50E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{675007E7-60C3-4388-9068-DE0446C67ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ddg_run_12_3_r_FLEX" sheetId="1" r:id="rId1"/>
     <sheet name="8 5 r" sheetId="3" r:id="rId2"/>
     <sheet name="8 5 r s" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="stats" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ddg_run_12_3_r_FLEX!$C$1:$C$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$F$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="404">
   <si>
     <t>#PDB</t>
   </si>
@@ -1248,6 +1250,9 @@
   </si>
   <si>
     <t>8 5 r s</t>
+  </si>
+  <si>
+    <t>MAE</t>
   </si>
 </sst>
 </file>
@@ -17153,15 +17158,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H440"/>
+  <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17180,11 +17185,8 @@
       <c r="F1" t="s">
         <v>402</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17203,12 +17205,8 @@
       <c r="F2">
         <v>3.1689629082990902</v>
       </c>
-      <c r="H2">
-        <f>PEARSON(C:C, E:E)</f>
-        <v>0.29296842131693884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17227,12 +17225,8 @@
       <c r="F3">
         <v>1.7873377340274601</v>
       </c>
-      <c r="H3">
-        <f>PEARSON(C:C, F:F)</f>
-        <v>0.32272158865017125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -17252,7 +17246,7 @@
         <v>4.6234954617491804</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -17272,7 +17266,7 @@
         <v>1.36539448743515</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -17292,7 +17286,7 @@
         <v>5.6037654289007097</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -17312,7 +17306,7 @@
         <v>0.30172093561222901</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -17332,7 +17326,7 @@
         <v>3.72016407877235</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -17352,7 +17346,7 @@
         <v>0.44856315235037902</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -17372,7 +17366,7 @@
         <v>2.2910271269785798</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -17392,7 +17386,7 @@
         <v>-0.104805615613258</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -17412,7 +17406,7 @@
         <v>1.0088723063417999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -17432,7 +17426,7 @@
         <v>2.0299685869166701</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -17452,7 +17446,7 @@
         <v>0.25283989082390601</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -17472,7 +17466,7 @@
         <v>0.84440352794235796</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -24893,6 +24887,48 @@
       </c>
       <c r="D440" t="s">
         <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F440" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283CCA3F-6521-487A-843F-907DCE41724E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2">
+        <f>PEARSON(Sheet1!C:C, Sheet1!E:E)</f>
+        <v>0.29296842131693884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3">
+        <f>PEARSON(Sheet1!C:C, Sheet1!F:F)</f>
+        <v>0.32272158865017125</v>
       </c>
     </row>
   </sheetData>

--- a/FLEX_RUNS.xlsx
+++ b/FLEX_RUNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kyroyo\rosetta-antibody-ddgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834E2F5-B7FC-4327-85D2-E49AFDB87461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58668E7-C130-4AD8-B522-D2C41564F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,13 @@
     <sheet name="8 50 r s" sheetId="6" r:id="rId4"/>
     <sheet name="8 10 r s" sheetId="7" r:id="rId5"/>
     <sheet name="8 5 35k r s" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
-    <sheet name="stats" sheetId="5" r:id="rId8"/>
+    <sheet name="8 10 35k r s" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
+    <sheet name="stats" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ddg_run_12_3_r_FLEX!$C$1:$C$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$F$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$F$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="411">
   <si>
     <t>#PDB</t>
   </si>
@@ -1273,6 +1274,9 @@
   </si>
   <si>
     <t>Error of Best</t>
+  </si>
+  <si>
+    <t>8 10 35k r s</t>
   </si>
 </sst>
 </file>
@@ -13175,6 +13179,1872 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 10 35k r s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7077209098862644E-2"/>
+                  <c:y val="0.15236111111111111"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$440</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="439"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.21</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.36</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-2.595427291</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.83283190399999996</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-1.4429505060000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.42700175899999998</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.74291819999999997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.56446562199999994</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.56446562199999994</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.452149468</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.15309251</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.604223501</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.9319002350000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-0.676781776</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.40078361800000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.733154745</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1.4910274139999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.7944363719999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.5188207249999999</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.962050276</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.733154745</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.9293328540000001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1.3061529860000001</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.56446562199999994</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.103783535</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1.766137641</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.0725664830000001</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.0725664830000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.226819678</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1.476567661</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.48510027999999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-2.4865707000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.1916071</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.93626330499999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-0.99146738099999998</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-1.556770574</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.9367410060000001</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.872956498</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.025186819</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>4.2241787720000001</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-4.2241787720000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-2.287437766</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-2.3512222739999999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.1989919529999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-3.025186819</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.0884458130000001</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-1.1522303220000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.1989919529999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.872956498</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.3784508000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.1522303220000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2.3512222739999999</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-1.9367410060000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-6.3784508000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.0884458130000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2.287437766</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.145212812</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-4.0277958000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-0.81619820200000004</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.57627492899999999</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>5.9422738000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-0.13941642600000001</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.50730898199999996</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-0.81619820200000004</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-1.5796592000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-1.5796592000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-0.86222838400000001</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2.3328318540000001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.3811223530000001</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.88492207300000003</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4.6175035900000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.82145078900000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-0.14279751800000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.22889553100000001</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-0.79336115299999999</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-1.6473646710000001</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.40611727399999997</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.16331520799999999</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>9.3755228999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-0.23312945400000001</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>9.3755228999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-4.3708632999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.676781776</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.90920759399999995</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.13746386299999999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.455815927</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1.1289312439999999</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.70192948499999996</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.95412059400000004</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.6302994329999998</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-0.167039141</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-0.88560189600000006</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-0.44259837200000002</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-0.71653965500000005</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.324090877</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-0.90331249300000005</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.5873418029999999</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.785808179</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.5188231059999999</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.377692784</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.57387089300000005</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.12791276700000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-4.0410111999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.509226073</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.364333639</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.1370907450000001</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>5.6041647E-2</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.77868893800000005</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.36534701400000003</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.2785558370000001</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.1774273310000001</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.87562094000000001</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.2340345779999999</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.1401709179999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.56250685</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2.7055557430000001</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>9.9138467999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.9252608000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-7.2558275000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-0.39834387900000001</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.84909486000000001</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-0.24978001699999999</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.092268558</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-0.56937428000000001</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-0.221122137</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.19883916500000001</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.87562094000000001</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-0.88405988499999999</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.5484563010000001</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.85155407800000005</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.2000295809999999</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.49164485699999999</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>6.1761304000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3.8844815289999999</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.94864116300000001</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3.7228747009999998</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2.6991353259999999</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.0656040769999999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>5.216723064</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.3441523470000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>5.71020606</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>5.1098847479999998</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>4.5598613009999998</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>4.3953697170000003</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2.3560379459999998</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.95356170600000001</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2.7083907269999998</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.4024762399999999</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.17044622000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.8991705249999999</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.17044622000000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>6.0380764109999996</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>7.3231999500000002</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>5.5134230070000001</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>3.247175527</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.70646680699999997</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.62026040400000004</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.80710305400000004</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>3.2520892859999999</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.7498775639999999</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.070841581</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2.0073771730000001</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.6102362939999999</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2.8505909410000001</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.36276079500000002</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.5144129930000001</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.6760198209999999</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-0.123781867</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>7.4126840000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>5.8491688E-2</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>7.2594306999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.10271912399999999</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.138012788</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.15684923200000001</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.181469197</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.251172275</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-0.58772877999999995</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.80583935900000003</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.1638087690000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.451637754</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>5.9209448999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.10764639199999999</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.39789213200000001</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.92665601799999997</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.256795968</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2.1201664469999999</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2.6736820130000001</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3.2616085259999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$440</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="439"/>
+                <c:pt idx="0">
+                  <c:v>3.5026393269999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0452196819999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.59491204555397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5755805880939899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.98575262745976</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.0060018294388999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.20487142332785799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.2458900197780101E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.4822437927943604</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6850264818051699</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.2647896753071102</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.34805600700355999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.115690236337604</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.12397392157567901</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.203797737998411</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.15049413421111199</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.71096961158998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.9217909767979702</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-9.5322119012735101E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.30048956654286</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.6372801354144402</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.93415144859541199</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.9342531020520199</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.25907180642448102</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-4.2108551040854296</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-2.0856736818986001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-2.8095750831634798</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.1287641299791802</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-3.31882212999502</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.4389026944945398</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.8385921182270502</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.4878314859762201</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.4490510379286401</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>6.5935711804741002E-4</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>5.8849285140168801</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1.8538857140790601</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6.3636634872658302</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-2.6576529658463999</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-3.6654089874752098</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-3.1056052173576898</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-1.52991409506284E-2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-3.62389203777852</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-1.3453154496376101</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.18191761605094101</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.6722607745517899</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.53233379805519598</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-1.86088941329137</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-1.0122855732502101</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.75173941463231098</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>4.7059553818407496</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.16984080579009</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-1.00226886877871</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-2.54381972308801</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-4.3383873620692599</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.2288841093432401</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.12576591072979601</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2.0688650910880302</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.43595770886049</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-0.51075631300503799</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.0678115303797799</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-0.903279956219594</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.1863670678679601</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-0.67631603518029804</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-0.69734080456487302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D67E-47D3-B6A7-4C3287CA78A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684952784"/>
+        <c:axId val="684950224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684952784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684950224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="684950224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684952784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13336,6 +15206,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15955,6 +17865,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
@@ -16001,6 +18427,17 @@
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1E5D4007-BF4A-4E4F-8DC5-3AD394825F46}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EC4AC434-AFAB-41D0-824D-D0E054B50C08}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
@@ -16153,6 +18590,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB012A2-396C-57DF-BAC0-B72C1F1CB955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8659091" cy="6282652"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415A7802-C121-64EC-7B68-0685DB0C34BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25431,15 +27901,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L440"/>
+  <dimension ref="A1:M440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="N414" sqref="N414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25474,10 +27944,13 @@
         <v>408</v>
       </c>
       <c r="L1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25512,11 +27985,14 @@
         <v>2.5280625056559902</v>
       </c>
       <c r="L2">
+        <v>3.5026393269999998</v>
+      </c>
+      <c r="M2">
         <f>ABS(J2-C2)</f>
         <v>1.4884105237881098</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -25551,11 +28027,14 @@
         <v>2.8454029412122499</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">ABS(J3-C3)</f>
+        <v>2.0452196819999999</v>
+      </c>
+      <c r="M3">
+        <f>ABS(J3-C3)</f>
         <v>3.4668235754848906</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -25586,12 +28065,12 @@
       <c r="K4">
         <v>5.6196484734869001</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
+      <c r="M4">
+        <f>ABS(J4-C4)</f>
         <v>1.0442411022088001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -25622,12 +28101,12 @@
       <c r="K5">
         <v>0.88799075139404504</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
+      <c r="M5">
+        <f>ABS(J5-C5)</f>
         <v>4.9207024966933304</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -25658,12 +28137,12 @@
       <c r="K6">
         <v>5.0267024274175096</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
+      <c r="M6">
+        <f>ABS(J6-C6)</f>
         <v>4.0810838404649896</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -25694,12 +28173,12 @@
       <c r="K7">
         <v>0.27175650932604101</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
+      <c r="M7">
+        <f>ABS(J7-C7)</f>
         <v>1.123252832916205</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -25730,12 +28209,12 @@
       <c r="K8">
         <v>2.7914631778896299</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
+      <c r="M8">
+        <f>ABS(J8-C8)</f>
         <v>0.31498524184589982</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -25766,12 +28245,12 @@
       <c r="K9">
         <v>0.59161791763863203</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
+      <c r="M9">
+        <f>ABS(J9-C9)</f>
         <v>1.572406049889195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -25802,12 +28281,12 @@
       <c r="K10">
         <v>1.5727244988782301</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
+      <c r="M10">
+        <f>ABS(J10-C10)</f>
         <v>0.62764920576420025</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -25838,12 +28317,12 @@
       <c r="K11">
         <v>-0.47505551725289402</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
+      <c r="M11">
+        <f>ABS(J11-C11)</f>
         <v>1.0664316213291387</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -25878,11 +28357,14 @@
         <v>0.14924659863227099</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <v>1.59491204555397</v>
+      </c>
+      <c r="M12">
+        <f>ABS(J12-C12)</f>
         <v>0.94003324234172303</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -25917,11 +28399,14 @@
         <v>-0.14849519923373</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <v>1.5755805880939899</v>
+      </c>
+      <c r="M13">
+        <f>ABS(J13-C13)</f>
         <v>0.30481255271146002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -25952,12 +28437,12 @@
       <c r="K14">
         <v>0.20955974914922901</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
+      <c r="M14">
+        <f>ABS(J14-C14)</f>
         <v>0.54070740726730948</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -25988,12 +28473,12 @@
       <c r="K15">
         <v>4.8412643079245699E-2</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
+      <c r="M15">
+        <f>ABS(J15-C15)</f>
         <v>2.9962838287335938</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -26024,12 +28509,12 @@
       <c r="K16">
         <v>-0.87764762270853602</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
+      <c r="M16">
+        <f>ABS(J16-C16)</f>
         <v>0.73306572535438996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -26060,12 +28545,12 @@
       <c r="K17">
         <v>-0.24055473713087799</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
+      <c r="M17">
+        <f>ABS(J17-C17)</f>
         <v>1.9726048202811</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -26096,12 +28581,12 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
+      <c r="M18">
+        <f>ABS(J18-C18)</f>
         <v>0.55378339026106915</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -26132,12 +28617,12 @@
       <c r="K19">
         <v>2.8715468964201998</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
+      <c r="M19">
+        <f>ABS(J19-C19)</f>
         <v>0.88413037811529693</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -26163,7 +28648,7 @@
         <v>2.8690240141784602</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -26189,7 +28674,7 @@
         <v>2.5986302294351802</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -26215,7 +28700,7 @@
         <v>2.9026029118971501</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -26241,7 +28726,7 @@
         <v>5.1893332266311498</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -26267,7 +28752,7 @@
         <v>1.5644990132659499E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -26293,7 +28778,7 @@
         <v>2.97955345631635E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -26316,7 +28801,7 @@
         <v>0.52561142532549598</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -26339,7 +28824,7 @@
         <v>7.5429590345538602E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -26362,7 +28847,7 @@
         <v>-0.41099777297495099</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -26385,7 +28870,7 @@
         <v>0.309768452003572</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -26405,7 +28890,7 @@
         <v>-0.46370839524506602</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -26425,7 +28910,7 @@
         <v>-1.05368607334521</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -26663,7 +29148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -26677,7 +29162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -26691,7 +29176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -26705,7 +29190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -26719,7 +29204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -26733,7 +29218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -26747,7 +29232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -26761,7 +29246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -26775,7 +29260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -26789,7 +29274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -26803,7 +29288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -26817,7 +29302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -26831,7 +29316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -26845,7 +29330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -26877,11 +29362,14 @@
         <v>0.62830434288771297</v>
       </c>
       <c r="L62">
-        <f t="shared" si="0"/>
+        <v>-0.98575262745976</v>
+      </c>
+      <c r="M62">
+        <f>ABS(J62-C62)</f>
         <v>1.008304342887713</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -26913,11 +29401,14 @@
         <v>-1.3637647812931299</v>
       </c>
       <c r="L63">
-        <f t="shared" si="0"/>
+        <v>-1.0060018294388999</v>
+      </c>
+      <c r="M63">
+        <f>ABS(J63-C63)</f>
         <v>0.87376478129312996</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -26945,12 +29436,12 @@
       <c r="J64">
         <v>-2.4935719854370202</v>
       </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
+      <c r="M64">
+        <f>ABS(J64-C64)</f>
         <v>2.3435719854370203</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -26978,12 +29469,12 @@
       <c r="J65">
         <v>0.466763357530453</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
+      <c r="M65">
+        <f>ABS(J65-C65)</f>
         <v>1.6763357530452994E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -27011,12 +29502,12 @@
       <c r="J66">
         <v>-0.211377502591858</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
+      <c r="M66">
+        <f>ABS(J66-C66)</f>
         <v>0.74137750259185808</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -27044,12 +29535,12 @@
       <c r="J67">
         <v>-3.26840576922713</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L130" si="1">ABS(J67-C67)</f>
+      <c r="M67">
+        <f>ABS(J67-C67)</f>
         <v>3.3984057692271299</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -27077,12 +29568,12 @@
       <c r="J68">
         <v>-1.28948135152486</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="1"/>
+      <c r="M68">
+        <f>ABS(J68-C68)</f>
         <v>0.72948135152485993</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -27110,12 +29601,12 @@
       <c r="J69">
         <v>0.69647794081138203</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="1"/>
+      <c r="M69">
+        <f>ABS(J69-C69)</f>
         <v>1.546477940811382</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -27141,7 +29632,7 @@
         <v>-1.50158861074341</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -27167,7 +29658,7 @@
         <v>-0.34358904776318</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -27190,11 +29681,14 @@
         <v>-5.36860401234662E-2</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
+        <v>0.20487142332785799</v>
+      </c>
+      <c r="M72">
+        <f>ABS(J72-C72)</f>
         <v>0.30368604012346623</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -27217,11 +29711,14 @@
         <v>4.5080994581075999E-2</v>
       </c>
       <c r="L73">
-        <f t="shared" si="1"/>
+        <v>5.2458900197780101E-2</v>
+      </c>
+      <c r="M73">
+        <f>ABS(J73-C73)</f>
         <v>0.56491900541892404</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -27243,12 +29740,12 @@
       <c r="J74">
         <v>-0.121904193962291</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="1"/>
+      <c r="M74">
+        <f>ABS(J74-C74)</f>
         <v>0.50190419396229102</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -27270,12 +29767,12 @@
       <c r="J75">
         <v>3.3184795746537898</v>
       </c>
-      <c r="L75">
-        <f t="shared" si="1"/>
+      <c r="M75">
+        <f>ABS(J75-C75)</f>
         <v>3.4084795746537897</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -27292,7 +29789,7 @@
         <v>0.108804922980016</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -27309,7 +29806,7 @@
         <v>-0.456172575713571</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -27326,7 +29823,7 @@
         <v>3.42455165453757</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -27343,7 +29840,7 @@
         <v>-8.4547785001086506E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -27357,7 +29854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -27371,7 +29868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -27385,7 +29882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -27399,7 +29896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -27413,7 +29910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -27427,7 +29924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -27441,7 +29938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -27455,7 +29952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -27469,7 +29966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -27483,7 +29980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -27497,7 +29994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -27511,7 +30008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -27525,7 +30022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -27560,11 +30057,14 @@
         <v>4.5210374460253204</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
+        <v>5.4822437927943604</v>
+      </c>
+      <c r="M93">
+        <f>ABS(J93-C93)</f>
         <v>1.4026828158621805</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -27599,11 +30099,14 @@
         <v>2.7192364985202802</v>
       </c>
       <c r="L94">
-        <f t="shared" si="1"/>
+        <v>1.6850264818051699</v>
+      </c>
+      <c r="M94">
+        <f>ABS(J94-C94)</f>
         <v>0.88254290203675989</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -27637,12 +30140,12 @@
       <c r="K95">
         <v>-0.13120638749678601</v>
       </c>
-      <c r="L95">
-        <f t="shared" si="1"/>
+      <c r="M95">
+        <f>ABS(J95-C95)</f>
         <v>3.5733335209441699</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -27676,12 +30179,12 @@
       <c r="K96">
         <v>-8.2088604681894106E-2</v>
       </c>
-      <c r="L96">
-        <f t="shared" si="1"/>
+      <c r="M96">
+        <f>ABS(J96-C96)</f>
         <v>0.74628237927128704</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -27712,12 +30215,12 @@
       <c r="K97">
         <v>0.70697203420099797</v>
       </c>
-      <c r="L97">
-        <f t="shared" si="1"/>
+      <c r="M97">
+        <f>ABS(J97-C97)</f>
         <v>2.63485057301336</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -27748,12 +30251,12 @@
       <c r="K98">
         <v>3.0239911882007098</v>
       </c>
-      <c r="L98">
-        <f t="shared" si="1"/>
+      <c r="M98">
+        <f>ABS(J98-C98)</f>
         <v>0.27483253351439102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -27784,12 +30287,12 @@
       <c r="K99">
         <v>0.25847084741130799</v>
       </c>
-      <c r="L99">
-        <f t="shared" si="1"/>
+      <c r="M99">
+        <f>ABS(J99-C99)</f>
         <v>1.4020211007141199</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -27820,12 +30323,12 @@
       <c r="K100">
         <v>0.174669352189494</v>
       </c>
-      <c r="L100">
-        <f t="shared" si="1"/>
+      <c r="M100">
+        <f>ABS(J100-C100)</f>
         <v>2.37353798302839</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -27853,12 +30356,12 @@
       <c r="J101">
         <v>-1.9739922587230401</v>
       </c>
-      <c r="L101">
-        <f t="shared" si="1"/>
+      <c r="M101">
+        <f>ABS(J101-C101)</f>
         <v>3.2339922587230401</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -27886,12 +30389,12 @@
       <c r="J102">
         <v>-0.11669960819467599</v>
       </c>
-      <c r="L102">
-        <f t="shared" si="1"/>
+      <c r="M102">
+        <f>ABS(J102-C102)</f>
         <v>0.11669960819467599</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -27919,12 +30422,12 @@
       <c r="J103">
         <v>0.35873701050040802</v>
       </c>
-      <c r="L103">
-        <f t="shared" si="1"/>
+      <c r="M103">
+        <f>ABS(J103-C103)</f>
         <v>0.45873701050040805</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -27952,12 +30455,12 @@
       <c r="J104">
         <v>0.443269906404475</v>
       </c>
-      <c r="L104">
-        <f t="shared" si="1"/>
+      <c r="M104">
+        <f>ABS(J104-C104)</f>
         <v>0.29326990640447503</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -27985,12 +30488,12 @@
       <c r="J105">
         <v>-1.2081545412616801</v>
       </c>
-      <c r="L105">
-        <f t="shared" si="1"/>
+      <c r="M105">
+        <f>ABS(J105-C105)</f>
         <v>1.2881545412616802</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -28018,12 +30521,12 @@
       <c r="J106">
         <v>5.1863451081713698</v>
       </c>
-      <c r="L106">
-        <f t="shared" si="1"/>
+      <c r="M106">
+        <f>ABS(J106-C106)</f>
         <v>4.2863451081713695</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -28051,12 +30554,12 @@
       <c r="J107">
         <v>-4.2052154878277603</v>
       </c>
-      <c r="L107">
-        <f t="shared" si="1"/>
+      <c r="M107">
+        <f>ABS(J107-C107)</f>
         <v>8.2052154878277612</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -28084,12 +30587,12 @@
       <c r="J108">
         <v>1.36182971772759</v>
       </c>
-      <c r="L108">
-        <f t="shared" si="1"/>
+      <c r="M108">
+        <f>ABS(J108-C108)</f>
         <v>0.23817028227241011</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -28115,7 +30618,7 @@
         <v>0.66971645981639005</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -28141,7 +30644,7 @@
         <v>0.48930706390242401</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -28167,7 +30670,7 @@
         <v>-1.34543789154563</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -28193,7 +30696,7 @@
         <v>-0.31157524412619703</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -28219,7 +30722,7 @@
         <v>-0.35916263898447998</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -28245,7 +30748,7 @@
         <v>4.0376578036378703</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -28271,7 +30774,7 @@
         <v>1.2617647820748901</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -28297,7 +30800,7 @@
         <v>-0.54340023114395897</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -28320,7 +30823,7 @@
         <v>1.42213697652368</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -28343,7 +30846,7 @@
         <v>-2.23936525058493</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -28375,11 +30878,14 @@
         <v>-0.600493230542815</v>
       </c>
       <c r="L119">
-        <f t="shared" si="1"/>
+        <v>-2.2647896753071102</v>
+      </c>
+      <c r="M119">
+        <f>ABS(J119-C119)</f>
         <v>1.2498929556056801</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -28411,11 +30917,14 @@
         <v>-1.4292924751316599E-2</v>
       </c>
       <c r="L120">
-        <f t="shared" si="1"/>
+        <v>-0.34805600700355999</v>
+      </c>
+      <c r="M120">
+        <f>ABS(J120-C120)</f>
         <v>1.25502865481343</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -28446,12 +30955,12 @@
       <c r="K121">
         <v>0.57523932984822701</v>
       </c>
-      <c r="L121">
-        <f t="shared" si="1"/>
+      <c r="M121">
+        <f>ABS(J121-C121)</f>
         <v>0.84197151845477403</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -28482,12 +30991,12 @@
       <c r="K122">
         <v>-4.0568126341895498E-3</v>
       </c>
-      <c r="L122">
-        <f t="shared" si="1"/>
+      <c r="M122">
+        <f>ABS(J122-C122)</f>
         <v>1.4480602221654399</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -28513,7 +31022,7 @@
         <v>-5.9662362178278201E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -28533,7 +31042,7 @@
         <v>3.9626816368217903E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -28553,7 +31062,7 @@
         <v>-0.55926459777692705</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -28570,7 +31079,7 @@
         <v>1.7469813585032099</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -28587,7 +31096,7 @@
         <v>0.58561232910069505</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -28604,7 +31113,7 @@
         <v>0.67850902319842099</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -28621,7 +31130,7 @@
         <v>2.8720344670320599</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -28638,7 +31147,7 @@
         <v>2.3659610219725402</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -28655,7 +31164,7 @@
         <v>-0.46512684046001501</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -28672,7 +31181,7 @@
         <v>2.9692449118448101</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -28707,11 +31216,14 @@
         <v>4.1438752983503899E-2</v>
       </c>
       <c r="L133">
-        <f t="shared" ref="L131:L194" si="2">ABS(J133-C133)</f>
+        <v>0.115690236337604</v>
+      </c>
+      <c r="M133">
+        <f>ABS(J133-C133)</f>
         <v>9.0813038425404016E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -28746,11 +31258,14 @@
         <v>-5.2107786647684402E-2</v>
       </c>
       <c r="L134">
-        <f t="shared" si="2"/>
+        <v>0.12397392157567901</v>
+      </c>
+      <c r="M134">
+        <f>ABS(J134-C134)</f>
         <v>4.06131491564337E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -28781,12 +31296,12 @@
       <c r="K135">
         <v>-0.11191415331113599</v>
       </c>
-      <c r="L135">
-        <f t="shared" si="2"/>
+      <c r="M135">
+        <f>ABS(J135-C135)</f>
         <v>1.0082734623986649</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -28817,12 +31332,12 @@
       <c r="K136">
         <v>-8.4529548638147295E-2</v>
       </c>
-      <c r="L136">
-        <f t="shared" si="2"/>
+      <c r="M136">
+        <f>ABS(J136-C136)</f>
         <v>0.18060152279067562</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -28853,12 +31368,12 @@
       <c r="K137">
         <v>1.54107985301925</v>
       </c>
-      <c r="L137">
-        <f t="shared" si="2"/>
+      <c r="M137">
+        <f>ABS(J137-C137)</f>
         <v>0.42622792996062298</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -28889,12 +31404,12 @@
       <c r="K138">
         <v>0.70053772257106095</v>
       </c>
-      <c r="L138">
-        <f t="shared" si="2"/>
+      <c r="M138">
+        <f>ABS(J138-C138)</f>
         <v>0.52847345448352989</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -28925,12 +31440,12 @@
       <c r="K139">
         <v>-6.4574785580498395E-2</v>
       </c>
-      <c r="L139">
-        <f t="shared" si="2"/>
+      <c r="M139">
+        <f>ABS(J139-C139)</f>
         <v>3.6558544328728015E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -28961,12 +31476,12 @@
       <c r="K140">
         <v>7.6267535896749894E-2</v>
       </c>
-      <c r="L140">
-        <f t="shared" si="2"/>
+      <c r="M140">
+        <f>ABS(J140-C140)</f>
         <v>0.23774057857663131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -28997,12 +31512,12 @@
       <c r="K141">
         <v>0.101482917344856</v>
       </c>
-      <c r="L141">
-        <f t="shared" si="2"/>
+      <c r="M141">
+        <f>ABS(J141-C141)</f>
         <v>0.36983002421038691</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -29033,12 +31548,12 @@
       <c r="K142">
         <v>0.159834536943435</v>
       </c>
-      <c r="L142">
-        <f t="shared" si="2"/>
+      <c r="M142">
+        <f>ABS(J142-C142)</f>
         <v>1.105838941403908</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -29067,7 +31582,7 @@
         <v>8.3416066116114906E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -29416,7 +31931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>151</v>
       </c>
@@ -29430,7 +31945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -29444,7 +31959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -29458,7 +31973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>151</v>
       </c>
@@ -29472,7 +31987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -29486,7 +32001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>175</v>
       </c>
@@ -29509,11 +32024,14 @@
         <v>-0.40955364876226602</v>
       </c>
       <c r="L166">
-        <f t="shared" si="2"/>
+        <v>-0.203797737998411</v>
+      </c>
+      <c r="M166">
+        <f>ABS(J166-C166)</f>
         <v>0.8095536487622661</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -29536,11 +32054,14 @@
         <v>-0.28385823496200802</v>
       </c>
       <c r="L167">
-        <f t="shared" si="2"/>
+        <v>0.15049413421111199</v>
+      </c>
+      <c r="M167">
+        <f>ABS(J167-C167)</f>
         <v>0.18385823496200801</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -29562,12 +32083,12 @@
       <c r="J168">
         <v>5.7336836377999099E-2</v>
       </c>
-      <c r="L168">
-        <f t="shared" si="2"/>
+      <c r="M168">
+        <f>ABS(J168-C168)</f>
         <v>1.8426631636220008</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -29589,12 +32110,12 @@
       <c r="J169">
         <v>0.214083417678193</v>
       </c>
-      <c r="L169">
-        <f t="shared" si="2"/>
+      <c r="M169">
+        <f>ABS(J169-C169)</f>
         <v>0.11408341767819299</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -29611,7 +32132,7 @@
         <v>-1.0884111884714001</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -29628,7 +32149,7 @@
         <v>0.39975301578087902</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -29645,7 +32166,7 @@
         <v>-0.288780036565913</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -29662,7 +32183,7 @@
         <v>-8.7624494631836497E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -29679,7 +32200,7 @@
         <v>1.52604135595483</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -29696,7 +32217,7 @@
         <v>1.0084427397328</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -29934,7 +32455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>175</v>
       </c>
@@ -29948,7 +32469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>175</v>
       </c>
@@ -29962,7 +32483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -29976,7 +32497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>175</v>
       </c>
@@ -29990,7 +32511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>175</v>
       </c>
@@ -30004,7 +32525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>175</v>
       </c>
@@ -30018,7 +32539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>175</v>
       </c>
@@ -30032,7 +32553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>177</v>
       </c>
@@ -30064,11 +32585,14 @@
         <v>3.7083398123906499</v>
       </c>
       <c r="L200">
-        <f t="shared" ref="L195:L258" si="3">ABS(J200-C200)</f>
+        <v>3.71096961158998</v>
+      </c>
+      <c r="M200">
+        <f>ABS(J200-C200)</f>
         <v>1.8091893767405398</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>177</v>
       </c>
@@ -30100,11 +32624,14 @@
         <v>3.0337908493516799</v>
       </c>
       <c r="L201">
-        <f t="shared" si="3"/>
+        <v>2.9217909767979702</v>
+      </c>
+      <c r="M201">
+        <f>ABS(J201-C201)</f>
         <v>0.4191280248019098</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>177</v>
       </c>
@@ -30135,12 +32662,12 @@
       <c r="K202">
         <v>4.3728364358566898</v>
       </c>
-      <c r="L202">
-        <f t="shared" si="3"/>
+      <c r="M202">
+        <f>ABS(J202-C202)</f>
         <v>2.2156670728936101</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>177</v>
       </c>
@@ -30171,12 +32698,12 @@
       <c r="K203">
         <v>1.53946156795509</v>
       </c>
-      <c r="L203">
-        <f t="shared" si="3"/>
+      <c r="M203">
+        <f>ABS(J203-C203)</f>
         <v>0.47380903773118899</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>177</v>
       </c>
@@ -30207,12 +32734,12 @@
       <c r="K204">
         <v>0.164230999981646</v>
       </c>
-      <c r="L204">
-        <f t="shared" si="3"/>
+      <c r="M204">
+        <f>ABS(J204-C204)</f>
         <v>0.80239252515266302</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>177</v>
       </c>
@@ -30243,12 +32770,12 @@
       <c r="K205">
         <v>-1.1788819675553801</v>
       </c>
-      <c r="L205">
-        <f t="shared" si="3"/>
+      <c r="M205">
+        <f>ABS(J205-C205)</f>
         <v>2.5552748974656301</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>177</v>
       </c>
@@ -30279,12 +32806,12 @@
       <c r="K206">
         <v>4.9159713506950498</v>
       </c>
-      <c r="L206">
-        <f t="shared" si="3"/>
+      <c r="M206">
+        <f>ABS(J206-C206)</f>
         <v>3.2741741011619401</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>185</v>
       </c>
@@ -30316,11 +32843,14 @@
         <v>1.4166652408604401</v>
       </c>
       <c r="L207">
-        <f t="shared" si="3"/>
+        <v>-9.5322119012735101E-2</v>
+      </c>
+      <c r="M207">
+        <f>ABS(J207-C207)</f>
         <v>3.01262714445319</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>185</v>
       </c>
@@ -30352,11 +32882,14 @@
         <v>0.91011702154810303</v>
       </c>
       <c r="L208">
-        <f t="shared" si="3"/>
+        <v>1.30048956654286</v>
+      </c>
+      <c r="M208">
+        <f>ABS(J208-C208)</f>
         <v>0.48561689881269499</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>185</v>
       </c>
@@ -30387,12 +32920,12 @@
       <c r="K209">
         <v>0</v>
       </c>
-      <c r="L209">
-        <f t="shared" si="3"/>
+      <c r="M209">
+        <f>ABS(J209-C209)</f>
         <v>0.32627709583386599</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>185</v>
       </c>
@@ -30423,12 +32956,12 @@
       <c r="K210">
         <v>5.6686588614753797</v>
       </c>
-      <c r="L210">
-        <f t="shared" si="3"/>
+      <c r="M210">
+        <f>ABS(J210-C210)</f>
         <v>4.0655093358799697</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>185</v>
       </c>
@@ -30459,12 +32992,12 @@
       <c r="K211">
         <v>0.122098307216583</v>
       </c>
-      <c r="L211">
-        <f t="shared" si="3"/>
+      <c r="M211">
+        <f>ABS(J211-C211)</f>
         <v>5.1407905357655359</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>185</v>
       </c>
@@ -30495,12 +33028,12 @@
       <c r="K212">
         <v>2.5304977790587602</v>
       </c>
-      <c r="L212">
-        <f t="shared" si="3"/>
+      <c r="M212">
+        <f>ABS(J212-C212)</f>
         <v>1.1133139926685101</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>185</v>
       </c>
@@ -30531,12 +33064,12 @@
       <c r="K213">
         <v>2.7269244506094301</v>
       </c>
-      <c r="L213">
-        <f t="shared" si="3"/>
+      <c r="M213">
+        <f>ABS(J213-C213)</f>
         <v>5.5627715700571763</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>185</v>
       </c>
@@ -30567,12 +33100,12 @@
       <c r="K214">
         <v>4.0625790849609897</v>
       </c>
-      <c r="L214">
-        <f t="shared" si="3"/>
+      <c r="M214">
+        <f>ABS(J214-C214)</f>
         <v>2.6735370614676603</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>185</v>
       </c>
@@ -30603,12 +33136,12 @@
       <c r="K215">
         <v>2.2953300665752501</v>
       </c>
-      <c r="L215">
-        <f t="shared" si="3"/>
+      <c r="M215">
+        <f>ABS(J215-C215)</f>
         <v>0.68486315920417007</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>185</v>
       </c>
@@ -30636,12 +33169,12 @@
       <c r="K216">
         <v>-2.0554672321350099E-2</v>
       </c>
-      <c r="L216">
-        <f t="shared" si="3"/>
+      <c r="M216">
+        <f>ABS(J216-C216)</f>
         <v>4.6694967194192216</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>185</v>
       </c>
@@ -30667,7 +33200,7 @@
         <v>-0.52109748507368703</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>185</v>
       </c>
@@ -30693,7 +33226,7 @@
         <v>2.7267895797233899</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>185</v>
       </c>
@@ -30719,7 +33252,7 @@
         <v>3.1277811787958798E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>185</v>
       </c>
@@ -30745,7 +33278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>194</v>
       </c>
@@ -30774,11 +33307,14 @@
         <v>2.4357620470815999</v>
       </c>
       <c r="L221">
-        <f t="shared" si="3"/>
+        <v>2.6372801354144402</v>
+      </c>
+      <c r="M221">
+        <f>ABS(J221-C221)</f>
         <v>3.03556307578233</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>194</v>
       </c>
@@ -30807,11 +33343,14 @@
         <v>1.26440771443767</v>
       </c>
       <c r="L222">
-        <f t="shared" si="3"/>
+        <v>0.93415144859541199</v>
+      </c>
+      <c r="M222">
+        <f>ABS(J222-C222)</f>
         <v>0.36424126530020007</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>194</v>
       </c>
@@ -30839,12 +33378,12 @@
       <c r="K223">
         <v>0.78576197464408304</v>
       </c>
-      <c r="L223">
-        <f t="shared" si="3"/>
+      <c r="M223">
+        <f>ABS(J223-C223)</f>
         <v>0.52584816305536108</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>194</v>
       </c>
@@ -30872,12 +33411,12 @@
       <c r="K224">
         <v>0.17806903025548301</v>
       </c>
-      <c r="L224">
-        <f t="shared" si="3"/>
+      <c r="M224">
+        <f>ABS(J224-C224)</f>
         <v>0.339620631160305</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>194</v>
       </c>
@@ -30897,7 +33436,7 @@
         <v>-0.68028751200945403</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>194</v>
       </c>
@@ -30917,7 +33456,7 @@
         <v>5.5571600716848399E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>194</v>
       </c>
@@ -30937,7 +33476,7 @@
         <v>-0.77441736980763298</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>194</v>
       </c>
@@ -30957,7 +33496,7 @@
         <v>-1.4822114758540901</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>194</v>
       </c>
@@ -30977,7 +33516,7 @@
         <v>0.43821369167353602</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>194</v>
       </c>
@@ -30997,7 +33536,7 @@
         <v>-7.8171463264879997E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>194</v>
       </c>
@@ -31014,7 +33553,7 @@
         <v>2.8988753161857801</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -31049,11 +33588,14 @@
         <v>1.7004635589282699</v>
       </c>
       <c r="L232">
-        <f t="shared" si="3"/>
+        <v>1.9342531020520199</v>
+      </c>
+      <c r="M232">
+        <f>ABS(J232-C232)</f>
         <v>0.46129481685113993</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>206</v>
       </c>
@@ -31088,11 +33630,14 @@
         <v>-0.18653551276788599</v>
       </c>
       <c r="L233">
-        <f t="shared" si="3"/>
+        <v>0.25907180642448102</v>
+      </c>
+      <c r="M233">
+        <f>ABS(J233-C233)</f>
         <v>1.7136142175313758</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>206</v>
       </c>
@@ -31123,12 +33668,12 @@
       <c r="K234">
         <v>3.1412066710325601</v>
       </c>
-      <c r="L234">
-        <f t="shared" si="3"/>
+      <c r="M234">
+        <f>ABS(J234-C234)</f>
         <v>2.6797227627530003</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>206</v>
       </c>
@@ -31159,12 +33704,12 @@
       <c r="K235">
         <v>0.69667157489598097</v>
       </c>
-      <c r="L235">
-        <f t="shared" si="3"/>
+      <c r="M235">
+        <f>ABS(J235-C235)</f>
         <v>1.8702737490464649</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -31195,12 +33740,12 @@
       <c r="K236">
         <v>1.6759706232470299</v>
       </c>
-      <c r="L236">
-        <f t="shared" si="3"/>
+      <c r="M236">
+        <f>ABS(J236-C236)</f>
         <v>1.5604695970423925</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>206</v>
       </c>
@@ -31231,12 +33776,12 @@
       <c r="K237">
         <v>1.67438943268603</v>
       </c>
-      <c r="L237">
-        <f t="shared" si="3"/>
+      <c r="M237">
+        <f>ABS(J237-C237)</f>
         <v>2.9935351048144998</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>206</v>
       </c>
@@ -31264,12 +33809,12 @@
       <c r="J238">
         <v>5.8411310004392298</v>
       </c>
-      <c r="L238">
-        <f t="shared" si="3"/>
+      <c r="M238">
+        <f>ABS(J238-C238)</f>
         <v>5.1511310004392303</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>206</v>
       </c>
@@ -31297,12 +33842,12 @@
       <c r="J239">
         <v>14.872242699525801</v>
       </c>
-      <c r="L239">
-        <f t="shared" si="3"/>
+      <c r="M239">
+        <f>ABS(J239-C239)</f>
         <v>12.052242699525801</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>206</v>
       </c>
@@ -31330,12 +33875,12 @@
       <c r="J240">
         <v>4.8039468150403</v>
       </c>
-      <c r="L240">
-        <f t="shared" si="3"/>
+      <c r="M240">
+        <f>ABS(J240-C240)</f>
         <v>0.48394681504029968</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>206</v>
       </c>
@@ -31363,12 +33908,12 @@
       <c r="J241">
         <v>3.1300887910902002</v>
       </c>
-      <c r="L241">
-        <f t="shared" si="3"/>
+      <c r="M241">
+        <f>ABS(J241-C241)</f>
         <v>1.5100887910902001</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>206</v>
       </c>
@@ -31396,12 +33941,12 @@
       <c r="J242">
         <v>1.4051942844413501</v>
       </c>
-      <c r="L242">
-        <f t="shared" si="3"/>
+      <c r="M242">
+        <f>ABS(J242-C242)</f>
         <v>2.8248057155586501</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>206</v>
       </c>
@@ -31429,12 +33974,12 @@
       <c r="J243">
         <v>-0.279994278475169</v>
       </c>
-      <c r="L243">
-        <f t="shared" si="3"/>
+      <c r="M243">
+        <f>ABS(J243-C243)</f>
         <v>1.4499942784751689</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>206</v>
       </c>
@@ -31457,7 +34002,7 @@
         <v>0.88529164714518604</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>206</v>
       </c>
@@ -31480,7 +34025,7 @@
         <v>-1.1682706412368999</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>206</v>
       </c>
@@ -31503,7 +34048,7 @@
         <v>2.54490421000264</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>206</v>
       </c>
@@ -31526,7 +34071,7 @@
         <v>-0.53822116654600904</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>206</v>
       </c>
@@ -31549,7 +34094,7 @@
         <v>-0.34489968489287998</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>206</v>
       </c>
@@ -31572,7 +34117,7 @@
         <v>2.4058402423255698</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>206</v>
       </c>
@@ -31595,7 +34140,7 @@
         <v>-6.1318979910678504</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>206</v>
       </c>
@@ -31618,7 +34163,7 @@
         <v>-3.1477255785823202</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>206</v>
       </c>
@@ -31641,7 +34186,7 @@
         <v>-0.87926386998988104</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>227</v>
       </c>
@@ -31676,11 +34221,14 @@
         <v>-1.5112418258406199</v>
       </c>
       <c r="L253">
-        <f t="shared" si="3"/>
+        <v>-4.2108551040854296</v>
+      </c>
+      <c r="M253">
+        <f>ABS(J253-C253)</f>
         <v>1.5216971478251997</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>230</v>
       </c>
@@ -31715,11 +34263,14 @@
         <v>3.2880294002072699</v>
       </c>
       <c r="L254">
-        <f t="shared" si="3"/>
+        <v>-2.0856736818986001</v>
+      </c>
+      <c r="M254">
+        <f>ABS(J254-C254)</f>
         <v>1.0786104102436802</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -31754,11 +34305,14 @@
         <v>2.5014786165922001</v>
       </c>
       <c r="L255">
-        <f t="shared" si="3"/>
+        <v>-2.8095750831634798</v>
+      </c>
+      <c r="M255">
+        <f>ABS(J255-C255)</f>
         <v>1.32834071598007</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>234</v>
       </c>
@@ -31790,11 +34344,14 @@
         <v>1.21706557341221</v>
       </c>
       <c r="L256">
-        <f t="shared" si="3"/>
+        <v>2.1287641299791802</v>
+      </c>
+      <c r="M256">
+        <f>ABS(J256-C256)</f>
         <v>2.5789815185957599</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -31826,11 +34383,14 @@
         <v>1.01991324274572</v>
       </c>
       <c r="L257">
-        <f t="shared" si="3"/>
+        <v>-3.31882212999502</v>
+      </c>
+      <c r="M257">
+        <f>ABS(J257-C257)</f>
         <v>1.52997833894512</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>234</v>
       </c>
@@ -31861,12 +34421,12 @@
       <c r="K258">
         <v>16.5089505899522</v>
       </c>
-      <c r="L258">
-        <f t="shared" si="3"/>
+      <c r="M258">
+        <f>ABS(J258-C258)</f>
         <v>5.3558658284408303</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>234</v>
       </c>
@@ -31897,12 +34457,12 @@
       <c r="K259">
         <v>6.7825329799664296</v>
       </c>
-      <c r="L259">
-        <f t="shared" ref="L259:L322" si="4">ABS(J259-C259)</f>
+      <c r="M259">
+        <f>ABS(J259-C259)</f>
         <v>4.8266953410898896</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>239</v>
       </c>
@@ -31937,11 +34497,14 @@
         <v>3.7315174689815098</v>
       </c>
       <c r="L260">
-        <f t="shared" si="4"/>
+        <v>4.4389026944945398</v>
+      </c>
+      <c r="M260">
+        <f>ABS(J260-C260)</f>
         <v>3.0552591021224798</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>239</v>
       </c>
@@ -31976,11 +34539,14 @@
         <v>3.1266730678281802</v>
       </c>
       <c r="L261">
-        <f t="shared" si="4"/>
+        <v>3.8385921182270502</v>
+      </c>
+      <c r="M261">
+        <f>ABS(J261-C261)</f>
         <v>3.2766837592600599</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -32008,12 +34574,12 @@
       <c r="K262">
         <v>1.22611653632579</v>
       </c>
-      <c r="L262">
-        <f t="shared" si="4"/>
+      <c r="M262">
+        <f>ABS(J262-C262)</f>
         <v>0.26152848559321007</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -32041,12 +34607,12 @@
       <c r="K263">
         <v>2.3437704070920499E-2</v>
       </c>
-      <c r="L263">
-        <f t="shared" si="4"/>
+      <c r="M263">
+        <f>ABS(J263-C263)</f>
         <v>0.31687904702737302</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -32074,12 +34640,12 @@
       <c r="K264">
         <v>2.6271150994880998</v>
       </c>
-      <c r="L264">
-        <f t="shared" si="4"/>
+      <c r="M264">
+        <f>ABS(J264-C264)</f>
         <v>2.4793781559831931</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>239</v>
       </c>
@@ -32107,12 +34673,12 @@
       <c r="K265">
         <v>-0.25467546215286302</v>
       </c>
-      <c r="L265">
-        <f t="shared" si="4"/>
+      <c r="M265">
+        <f>ABS(J265-C265)</f>
         <v>0.93257350998059496</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>239</v>
       </c>
@@ -32140,12 +34706,12 @@
       <c r="K266">
         <v>3.1295203688483499</v>
       </c>
-      <c r="L266">
-        <f t="shared" si="4"/>
+      <c r="M266">
+        <f>ABS(J266-C266)</f>
         <v>1.123158995906246</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>239</v>
       </c>
@@ -32173,12 +34739,12 @@
       <c r="K267">
         <v>0.15298583716250899</v>
       </c>
-      <c r="L267">
-        <f t="shared" si="4"/>
+      <c r="M267">
+        <f>ABS(J267-C267)</f>
         <v>1.2825734881985671</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>239</v>
       </c>
@@ -32203,12 +34769,12 @@
       <c r="J268">
         <v>2.6958982013481498</v>
       </c>
-      <c r="L268">
-        <f t="shared" si="4"/>
+      <c r="M268">
+        <f>ABS(J268-C268)</f>
         <v>1.2048707873481499</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>239</v>
       </c>
@@ -32233,12 +34799,12 @@
       <c r="J269">
         <v>1.52878308229965</v>
       </c>
-      <c r="L269">
-        <f t="shared" si="4"/>
+      <c r="M269">
+        <f>ABS(J269-C269)</f>
         <v>1.2656532897003498</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>239</v>
       </c>
@@ -32263,12 +34829,12 @@
       <c r="J270">
         <v>0.245878410585055</v>
       </c>
-      <c r="L270">
-        <f t="shared" si="4"/>
+      <c r="M270">
+        <f>ABS(J270-C270)</f>
         <v>2.2729423144149448</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>239</v>
       </c>
@@ -32293,12 +34859,12 @@
       <c r="J271">
         <v>5.1721646693439602</v>
       </c>
-      <c r="L271">
-        <f t="shared" si="4"/>
+      <c r="M271">
+        <f>ABS(J271-C271)</f>
         <v>3.21011439334396</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>239</v>
       </c>
@@ -32323,12 +34889,12 @@
       <c r="J272">
         <v>9.9339868167135095E-2</v>
       </c>
-      <c r="L272">
-        <f t="shared" si="4"/>
+      <c r="M272">
+        <f>ABS(J272-C272)</f>
         <v>1.6338148768328649</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>239</v>
       </c>
@@ -32353,12 +34919,12 @@
       <c r="J273">
         <v>3.3995787201406502</v>
       </c>
-      <c r="L273">
-        <f t="shared" si="4"/>
+      <c r="M273">
+        <f>ABS(J273-C273)</f>
         <v>1.4702458661406501</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>239</v>
       </c>
@@ -32381,7 +34947,7 @@
         <v>1.0975865950481101</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>239</v>
       </c>
@@ -32404,7 +34970,7 @@
         <v>0.63571915518518796</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>239</v>
       </c>
@@ -32424,7 +34990,7 @@
         <v>-0.27020532089518301</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -32444,7 +35010,7 @@
         <v>3.9416833811716501</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>239</v>
       </c>
@@ -32464,7 +35030,7 @@
         <v>-0.22243478035761599</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>254</v>
       </c>
@@ -32493,11 +35059,14 @@
         <v>5.4929545554901704</v>
       </c>
       <c r="L279">
-        <f t="shared" si="4"/>
+        <v>5.4878314859762201</v>
+      </c>
+      <c r="M279">
+        <f>ABS(J279-C279)</f>
         <v>2.4203880724901703</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -32526,11 +35095,14 @@
         <v>3.7479482018155901</v>
       </c>
       <c r="L280">
-        <f t="shared" si="4"/>
+        <v>3.4490510379286401</v>
+      </c>
+      <c r="M280">
+        <f>ABS(J280-C280)</f>
         <v>0.67538171881558995</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>254</v>
       </c>
@@ -32558,12 +35130,12 @@
       <c r="J281">
         <v>2.6355197882565702</v>
       </c>
-      <c r="L281">
-        <f t="shared" si="4"/>
+      <c r="M281">
+        <f>ABS(J281-C281)</f>
         <v>0.40870011025657016</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>254</v>
       </c>
@@ -32591,12 +35163,12 @@
       <c r="J282">
         <v>6.96203428166427E-2</v>
       </c>
-      <c r="L282">
-        <f t="shared" si="4"/>
+      <c r="M282">
+        <f>ABS(J282-C282)</f>
         <v>1.4069473181833574</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>254</v>
       </c>
@@ -32624,12 +35196,12 @@
       <c r="J283">
         <v>2.1226682032337001</v>
       </c>
-      <c r="L283">
-        <f t="shared" si="4"/>
+      <c r="M283">
+        <f>ABS(J283-C283)</f>
         <v>1.6375679232337002</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>254</v>
       </c>
@@ -32657,12 +35229,12 @@
       <c r="J284">
         <v>1.3284198015190201</v>
       </c>
-      <c r="L284">
-        <f t="shared" si="4"/>
+      <c r="M284">
+        <f>ABS(J284-C284)</f>
         <v>1.3532855085190201</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>254</v>
       </c>
@@ -32685,7 +35257,7 @@
         <v>7.4507195586610502</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>254</v>
       </c>
@@ -32708,7 +35280,7 @@
         <v>-2.6065965811994801E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>262</v>
       </c>
@@ -32743,11 +35315,14 @@
         <v>0</v>
       </c>
       <c r="L287">
-        <f t="shared" si="4"/>
+        <v>6.5935711804741002E-4</v>
+      </c>
+      <c r="M287">
+        <f>ABS(J287-C287)</f>
         <v>0.46420463058931793</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>262</v>
       </c>
@@ -32782,11 +35357,14 @@
         <v>5.2708336296954696</v>
       </c>
       <c r="L288">
-        <f t="shared" si="4"/>
+        <v>5.8849285140168801</v>
+      </c>
+      <c r="M288">
+        <f>ABS(J288-C288)</f>
         <v>7.5762739520911193</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>265</v>
       </c>
@@ -32818,11 +35396,14 @@
         <v>1.9251936792597</v>
       </c>
       <c r="L289">
-        <f t="shared" si="4"/>
+        <v>1.8538857140790601</v>
+      </c>
+      <c r="M289">
+        <f>ABS(J289-C289)</f>
         <v>1.1547326740300123E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>265</v>
       </c>
@@ -32854,11 +35435,14 @@
         <v>5.0490246992674601</v>
       </c>
       <c r="L290">
-        <f t="shared" si="4"/>
+        <v>6.3636634872658302</v>
+      </c>
+      <c r="M290">
+        <f>ABS(J290-C290)</f>
         <v>3.1760682012674604</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -32886,12 +35470,12 @@
       <c r="J291">
         <v>4.1252569340242102</v>
       </c>
-      <c r="L291">
-        <f t="shared" si="4"/>
+      <c r="M291">
+        <f>ABS(J291-C291)</f>
         <v>1.1000701150242103</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>265</v>
       </c>
@@ -32919,12 +35503,12 @@
       <c r="J292">
         <v>5.9586850165639502</v>
       </c>
-      <c r="L292">
-        <f t="shared" si="4"/>
+      <c r="M292">
+        <f>ABS(J292-C292)</f>
         <v>1.7345062445639501</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -32959,11 +35543,14 @@
         <v>-4.5025273592186696</v>
       </c>
       <c r="L293">
-        <f t="shared" si="4"/>
+        <v>-2.6576529658463999</v>
+      </c>
+      <c r="M293">
+        <f>ABS(J293-C293)</f>
         <v>2.1030343878006099</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>270</v>
       </c>
@@ -32998,11 +35585,14 @@
         <v>-0.57217119507804404</v>
       </c>
       <c r="L294">
-        <f t="shared" si="4"/>
+        <v>-3.6654089874752098</v>
+      </c>
+      <c r="M294">
+        <f>ABS(J294-C294)</f>
         <v>1.90183364537946</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>270</v>
       </c>
@@ -33033,12 +35623,12 @@
       <c r="K295">
         <v>0.780004412714424</v>
       </c>
-      <c r="L295">
-        <f t="shared" si="4"/>
+      <c r="M295">
+        <f>ABS(J295-C295)</f>
         <v>4.3754686702149401</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>270</v>
       </c>
@@ -33069,12 +35659,12 @@
       <c r="K296">
         <v>0.79394604083536202</v>
       </c>
-      <c r="L296">
-        <f t="shared" si="4"/>
+      <c r="M296">
+        <f>ABS(J296-C296)</f>
         <v>0.43760932819354004</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>275</v>
       </c>
@@ -33109,11 +35699,14 @@
         <v>-2.62205472902223</v>
       </c>
       <c r="L297">
-        <f t="shared" si="4"/>
+        <v>-3.1056052173576898</v>
+      </c>
+      <c r="M297">
+        <f>ABS(J297-C297)</f>
         <v>0.22397409862313999</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>275</v>
       </c>
@@ -33148,11 +35741,14 @@
         <v>1.14093761442509</v>
       </c>
       <c r="L298">
-        <f t="shared" si="4"/>
+        <v>-1.52991409506284E-2</v>
+      </c>
+      <c r="M298">
+        <f>ABS(J298-C298)</f>
         <v>7.4123406873959796E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>275</v>
       </c>
@@ -33183,12 +35779,12 @@
       <c r="K299">
         <v>0</v>
       </c>
-      <c r="L299">
-        <f t="shared" si="4"/>
+      <c r="M299">
+        <f>ABS(J299-C299)</f>
         <v>1.3122904399670772</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>275</v>
       </c>
@@ -33219,12 +35815,12 @@
       <c r="K300">
         <v>1.5113909568141</v>
       </c>
-      <c r="L300">
-        <f t="shared" si="4"/>
+      <c r="M300">
+        <f>ABS(J300-C300)</f>
         <v>0.94835066959562009</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>280</v>
       </c>
@@ -33259,11 +35855,14 @@
         <v>-2.1960603486602799</v>
       </c>
       <c r="L301">
-        <f t="shared" si="4"/>
+        <v>-3.62389203777852</v>
+      </c>
+      <c r="M301">
+        <f>ABS(J301-C301)</f>
         <v>1.7621172353063901</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>280</v>
       </c>
@@ -33298,11 +35897,14 @@
         <v>-0.56741666565740101</v>
       </c>
       <c r="L302">
-        <f t="shared" si="4"/>
+        <v>-1.3453154496376101</v>
+      </c>
+      <c r="M302">
+        <f>ABS(J302-C302)</f>
         <v>1.1534241243399899</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>280</v>
       </c>
@@ -33331,7 +35933,7 @@
         <v>1.30029848222066</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>280</v>
       </c>
@@ -33360,7 +35962,7 @@
         <v>2.2463078758869401</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>285</v>
       </c>
@@ -33395,11 +35997,14 @@
         <v>-0.92551259880374304</v>
       </c>
       <c r="L305">
-        <f t="shared" si="4"/>
+        <v>0.18191761605094101</v>
+      </c>
+      <c r="M305">
+        <f>ABS(J305-C305)</f>
         <v>1.2832654724925201</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -33434,11 +36039,14 @@
         <v>3.75750586028916</v>
       </c>
       <c r="L306">
-        <f t="shared" si="4"/>
+        <v>1.6722607745517899</v>
+      </c>
+      <c r="M306">
+        <f>ABS(J306-C306)</f>
         <v>2.0284963428721001</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>285</v>
       </c>
@@ -33469,12 +36077,12 @@
       <c r="K307">
         <v>4.3527722595093996</v>
       </c>
-      <c r="L307">
-        <f t="shared" si="4"/>
+      <c r="M307">
+        <f>ABS(J307-C307)</f>
         <v>3.0279253875604697</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>285</v>
       </c>
@@ -33505,12 +36113,12 @@
       <c r="K308">
         <v>5.1329443693536598</v>
       </c>
-      <c r="L308">
-        <f t="shared" si="4"/>
+      <c r="M308">
+        <f>ABS(J308-C308)</f>
         <v>3.4538952455694396</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>290</v>
       </c>
@@ -33536,11 +36144,14 @@
         <v>0.18984586643655299</v>
       </c>
       <c r="L309">
-        <f t="shared" si="4"/>
+        <v>0.53233379805519598</v>
+      </c>
+      <c r="M309">
+        <f>ABS(J309-C309)</f>
         <v>1.033929786548879</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>290</v>
       </c>
@@ -33566,11 +36177,14 @@
         <v>-2.7408694481333802</v>
       </c>
       <c r="L310">
-        <f t="shared" si="4"/>
+        <v>-1.86088941329137</v>
+      </c>
+      <c r="M310">
+        <f>ABS(J310-C310)</f>
         <v>1.45989070109351</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>290</v>
       </c>
@@ -33592,12 +36206,12 @@
       <c r="K311">
         <v>-2.5626768800848301</v>
       </c>
-      <c r="L311">
-        <f t="shared" si="4"/>
+      <c r="M311">
+        <f>ABS(J311-C311)</f>
         <v>1.4387513015170301</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -33619,12 +36233,12 @@
       <c r="K312">
         <v>5.17141702636763E-2</v>
       </c>
-      <c r="L312">
-        <f t="shared" si="4"/>
+      <c r="M312">
+        <f>ABS(J312-C312)</f>
         <v>7.5891943221414015E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>290</v>
       </c>
@@ -33644,7 +36258,7 @@
         <v>2.9963756513279802E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>290</v>
       </c>
@@ -33664,7 +36278,7 @@
         <v>-0.74032314943819899</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>290</v>
       </c>
@@ -33681,7 +36295,7 @@
         <v>-1.1939254171011199E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>290</v>
       </c>
@@ -33698,7 +36312,7 @@
         <v>6.1870885684129</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>290</v>
       </c>
@@ -33715,7 +36329,7 @@
         <v>2.5979327954657001</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>290</v>
       </c>
@@ -33732,7 +36346,7 @@
         <v>2.5842686288185099</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>300</v>
       </c>
@@ -33767,11 +36381,14 @@
         <v>0.11637786681335401</v>
       </c>
       <c r="L319">
-        <f t="shared" si="4"/>
+        <v>-1.0122855732502101</v>
+      </c>
+      <c r="M319">
+        <f>ABS(J319-C319)</f>
         <v>1.58121291690967</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>302</v>
       </c>
@@ -33806,11 +36423,14 @@
         <v>-2.04835391211418E-2</v>
       </c>
       <c r="L320">
-        <f t="shared" si="4"/>
+        <v>-0.75173941463231098</v>
+      </c>
+      <c r="M320">
+        <f>ABS(J320-C320)</f>
         <v>2.0743980700263309</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>302</v>
       </c>
@@ -33845,11 +36465,14 @@
         <v>1.3656321692972999</v>
       </c>
       <c r="L321">
-        <f t="shared" si="4"/>
+        <v>4.7059553818407496</v>
+      </c>
+      <c r="M321">
+        <f>ABS(J321-C321)</f>
         <v>5.1144451792753394</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>302</v>
       </c>
@@ -33880,12 +36503,12 @@
       <c r="K322">
         <v>0.239636585601783</v>
       </c>
-      <c r="L322">
-        <f t="shared" si="4"/>
+      <c r="M322">
+        <f>ABS(J322-C322)</f>
         <v>0.46487067410848104</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>302</v>
       </c>
@@ -33916,12 +36539,12 @@
       <c r="K323">
         <v>1.3358908492303201</v>
       </c>
-      <c r="L323">
-        <f t="shared" ref="L323:L386" si="5">ABS(J323-C323)</f>
+      <c r="M323">
+        <f>ABS(J323-C323)</f>
         <v>1.76928964141264</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -33952,12 +36575,12 @@
       <c r="K324">
         <v>-0.206443015805052</v>
       </c>
-      <c r="L324">
-        <f t="shared" si="5"/>
+      <c r="M324">
+        <f>ABS(J324-C324)</f>
         <v>0.59316066133057599</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>302</v>
       </c>
@@ -33988,12 +36611,12 @@
       <c r="K325">
         <v>0.109291400866004</v>
       </c>
-      <c r="L325">
-        <f t="shared" si="5"/>
+      <c r="M325">
+        <f>ABS(J325-C325)</f>
         <v>1.5265121037898501</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>302</v>
       </c>
@@ -34021,12 +36644,12 @@
       <c r="J326">
         <v>-0.70447346550818102</v>
       </c>
-      <c r="L326">
-        <f t="shared" si="5"/>
+      <c r="M326">
+        <f>ABS(J326-C326)</f>
         <v>0.47557793450818098</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>302</v>
       </c>
@@ -34054,12 +36677,12 @@
       <c r="J327">
         <v>0.43358140221835101</v>
       </c>
-      <c r="L327">
-        <f t="shared" si="5"/>
+      <c r="M327">
+        <f>ABS(J327-C327)</f>
         <v>1.226942555218351</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>302</v>
       </c>
@@ -34087,12 +36710,12 @@
       <c r="J328">
         <v>-3.9003284840085102</v>
       </c>
-      <c r="L328">
-        <f t="shared" si="5"/>
+      <c r="M328">
+        <f>ABS(J328-C328)</f>
         <v>2.2529638130085101</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>302</v>
       </c>
@@ -34120,12 +36743,12 @@
       <c r="J329">
         <v>0.78478758033534102</v>
       </c>
-      <c r="L329">
-        <f t="shared" si="5"/>
+      <c r="M329">
+        <f>ABS(J329-C329)</f>
         <v>1.1909048543353409</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>311</v>
       </c>
@@ -34160,11 +36783,14 @@
         <v>-2.9207869877609399E-2</v>
       </c>
       <c r="L330">
-        <f t="shared" si="5"/>
+        <v>0.16984080579009</v>
+      </c>
+      <c r="M330">
+        <f>ABS(J330-C330)</f>
         <v>0.24812571503639991</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>311</v>
       </c>
@@ -34199,11 +36825,14 @@
         <v>-0.57852042873519105</v>
       </c>
       <c r="L331">
-        <f t="shared" si="5"/>
+        <v>-1.00226886877871</v>
+      </c>
+      <c r="M331">
+        <f>ABS(J331-C331)</f>
         <v>1.031589352000357</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>311</v>
       </c>
@@ -34234,12 +36863,12 @@
       <c r="K332">
         <v>1.41363281351004</v>
       </c>
-      <c r="L332">
-        <f t="shared" si="5"/>
+      <c r="M332">
+        <f>ABS(J332-C332)</f>
         <v>0.93497157721300894</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>311</v>
       </c>
@@ -34270,12 +36899,12 @@
       <c r="K333">
         <v>-4.8971653186799802E-2</v>
       </c>
-      <c r="L333">
-        <f t="shared" si="5"/>
+      <c r="M333">
+        <f>ABS(J333-C333)</f>
         <v>2.0124170694906005E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>311</v>
       </c>
@@ -34306,12 +36935,12 @@
       <c r="K334">
         <v>-0.57165297157589501</v>
       </c>
-      <c r="L334">
-        <f t="shared" si="5"/>
+      <c r="M334">
+        <f>ABS(J334-C334)</f>
         <v>1.0732142073736199</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>315</v>
       </c>
@@ -34346,11 +36975,14 @@
         <v>-2.47946770284734</v>
       </c>
       <c r="L335">
-        <f t="shared" si="5"/>
+        <v>-2.54381972308801</v>
+      </c>
+      <c r="M335">
+        <f>ABS(J335-C335)</f>
         <v>3.28633444262003</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>315</v>
       </c>
@@ -34385,11 +37017,14 @@
         <v>-2.0546943106095501</v>
       </c>
       <c r="L336">
-        <f t="shared" si="5"/>
+        <v>-4.3383873620692599</v>
+      </c>
+      <c r="M336">
+        <f>ABS(J336-C336)</f>
         <v>4.5517496833322504</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>315</v>
       </c>
@@ -34420,12 +37055,12 @@
       <c r="K337">
         <v>0</v>
       </c>
-      <c r="L337">
-        <f t="shared" si="5"/>
+      <c r="M337">
+        <f>ABS(J337-C337)</f>
         <v>0.11398872947547004</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>315</v>
       </c>
@@ -34456,12 +37091,12 @@
       <c r="K338">
         <v>-7.2145438984352897E-2</v>
       </c>
-      <c r="L338">
-        <f t="shared" si="5"/>
+      <c r="M338">
+        <f>ABS(J338-C338)</f>
         <v>0.59582080406280191</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>315</v>
       </c>
@@ -34492,12 +37127,12 @@
       <c r="K339">
         <v>5.8965785814398197</v>
       </c>
-      <c r="L339">
-        <f t="shared" si="5"/>
+      <c r="M339">
+        <f>ABS(J339-C339)</f>
         <v>1.0668406203677203</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>315</v>
       </c>
@@ -34528,12 +37163,12 @@
       <c r="K340">
         <v>0</v>
       </c>
-      <c r="L340">
-        <f t="shared" si="5"/>
+      <c r="M340">
+        <f>ABS(J340-C340)</f>
         <v>1.4157322936900698</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>315</v>
       </c>
@@ -34564,12 +37199,12 @@
       <c r="K341">
         <v>-0.27010443897402098</v>
       </c>
-      <c r="L341">
-        <f t="shared" si="5"/>
+      <c r="M341">
+        <f>ABS(J341-C341)</f>
         <v>0.36090146866094508</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>315</v>
       </c>
@@ -34600,12 +37235,12 @@
       <c r="K342">
         <v>1.09111955423941E-2</v>
       </c>
-      <c r="L342">
-        <f t="shared" si="5"/>
+      <c r="M342">
+        <f>ABS(J342-C342)</f>
         <v>3.854754314906967</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>315</v>
       </c>
@@ -34636,12 +37271,12 @@
       <c r="K343">
         <v>0.74857525119618895</v>
       </c>
-      <c r="L343">
-        <f t="shared" si="5"/>
+      <c r="M343">
+        <f>ABS(J343-C343)</f>
         <v>0.67780755829090999</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>315</v>
       </c>
@@ -34672,12 +37307,12 @@
       <c r="K344">
         <v>0.57564041386876796</v>
       </c>
-      <c r="L344">
-        <f t="shared" si="5"/>
+      <c r="M344">
+        <f>ABS(J344-C344)</f>
         <v>1.3775379159816761</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>315</v>
       </c>
@@ -34706,7 +37341,7 @@
         <v>0.13472757370600399</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>315</v>
       </c>
@@ -34735,7 +37370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>328</v>
       </c>
@@ -34761,11 +37396,14 @@
         <v>0.47150255155684101</v>
       </c>
       <c r="L347">
-        <f t="shared" si="5"/>
+        <v>1.2288841093432401</v>
+      </c>
+      <c r="M347">
+        <f>ABS(J347-C347)</f>
         <v>1.5588249581499201</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>328</v>
       </c>
@@ -34791,11 +37429,14 @@
         <v>0</v>
       </c>
       <c r="L348">
-        <f t="shared" si="5"/>
+        <v>0.12576591072979601</v>
+      </c>
+      <c r="M348">
+        <f>ABS(J348-C348)</f>
         <v>0.85807876284873308</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>328</v>
       </c>
@@ -34817,12 +37458,12 @@
       <c r="K349">
         <v>0.23704698879928399</v>
       </c>
-      <c r="L349">
-        <f t="shared" si="5"/>
+      <c r="M349">
+        <f>ABS(J349-C349)</f>
         <v>1.9284721769539099</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>328</v>
       </c>
@@ -34844,12 +37485,12 @@
       <c r="K350">
         <v>-0.71622163424817697</v>
       </c>
-      <c r="L350">
-        <f t="shared" si="5"/>
+      <c r="M350">
+        <f>ABS(J350-C350)</f>
         <v>3.5830926058416299</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>328</v>
       </c>
@@ -34863,7 +37504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>328</v>
       </c>
@@ -34877,7 +37518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>328</v>
       </c>
@@ -34891,7 +37532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>328</v>
       </c>
@@ -34905,7 +37546,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>335</v>
       </c>
@@ -34931,11 +37572,14 @@
         <v>0.77620529424557305</v>
       </c>
       <c r="L355">
-        <f t="shared" si="5"/>
+        <v>2.0688650910880302</v>
+      </c>
+      <c r="M355">
+        <f>ABS(J355-C355)</f>
         <v>2.2557714278436198</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>335</v>
       </c>
@@ -34961,11 +37605,14 @@
         <v>1.2531163520139601</v>
       </c>
       <c r="L356">
-        <f t="shared" si="5"/>
+        <v>1.43595770886049</v>
+      </c>
+      <c r="M356">
+        <f>ABS(J356-C356)</f>
         <v>0.1565882624161401</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>335</v>
       </c>
@@ -34990,12 +37637,12 @@
       <c r="K357">
         <v>3.75411010699945</v>
       </c>
-      <c r="L357">
-        <f t="shared" si="5"/>
+      <c r="M357">
+        <f>ABS(J357-C357)</f>
         <v>2.12333388856191</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>335</v>
       </c>
@@ -35020,12 +37667,12 @@
       <c r="K358">
         <v>2.2815988238517</v>
       </c>
-      <c r="L358">
-        <f t="shared" si="5"/>
+      <c r="M358">
+        <f>ABS(J358-C358)</f>
         <v>1.18843113166642</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>335</v>
       </c>
@@ -35044,12 +37691,12 @@
       <c r="J359">
         <v>1.61283674738424</v>
       </c>
-      <c r="L359">
-        <f t="shared" si="5"/>
+      <c r="M359">
+        <f>ABS(J359-C359)</f>
         <v>1.55679510038424</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>335</v>
       </c>
@@ -35068,12 +37715,12 @@
       <c r="J360">
         <v>5.3888783741228501</v>
       </c>
-      <c r="L360">
-        <f t="shared" si="5"/>
+      <c r="M360">
+        <f>ABS(J360-C360)</f>
         <v>4.6101894361228499</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>335</v>
       </c>
@@ -35090,7 +37737,7 @@
         <v>0.67960432059780895</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>335</v>
       </c>
@@ -35107,7 +37754,7 @@
         <v>2.5433549646868401</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>335</v>
       </c>
@@ -35121,7 +37768,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>335</v>
       </c>
@@ -35135,7 +37782,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -35149,7 +37796,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>335</v>
       </c>
@@ -35163,7 +37810,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>335</v>
       </c>
@@ -35177,7 +37824,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>335</v>
       </c>
@@ -35191,7 +37838,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>335</v>
       </c>
@@ -35205,7 +37852,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>335</v>
       </c>
@@ -35219,7 +37866,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>335</v>
       </c>
@@ -35233,7 +37880,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>335</v>
       </c>
@@ -35247,7 +37894,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>335</v>
       </c>
@@ -35261,7 +37908,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>335</v>
       </c>
@@ -35275,7 +37922,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>335</v>
       </c>
@@ -35289,7 +37936,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>335</v>
       </c>
@@ -35303,7 +37950,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>335</v>
       </c>
@@ -35317,7 +37964,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>335</v>
       </c>
@@ -35331,7 +37978,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>335</v>
       </c>
@@ -35345,7 +37992,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>335</v>
       </c>
@@ -35359,7 +38006,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>335</v>
       </c>
@@ -35373,7 +38020,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>335</v>
       </c>
@@ -35387,7 +38034,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>363</v>
       </c>
@@ -35422,11 +38069,14 @@
         <v>-0.28104867809720402</v>
       </c>
       <c r="L383">
-        <f t="shared" si="5"/>
+        <v>-0.51075631300503799</v>
+      </c>
+      <c r="M383">
+        <f>ABS(J383-C383)</f>
         <v>1.3717875874557519</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>363</v>
       </c>
@@ -35461,11 +38111,14 @@
         <v>0.428063708314039</v>
       </c>
       <c r="L384">
-        <f t="shared" si="5"/>
+        <v>1.0678115303797799</v>
+      </c>
+      <c r="M384">
+        <f>ABS(J384-C384)</f>
         <v>0.77525675155682006</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>363</v>
       </c>
@@ -35499,12 +38152,12 @@
       <c r="K385">
         <v>-0.29189128881744097</v>
       </c>
-      <c r="L385">
-        <f t="shared" si="5"/>
+      <c r="M385">
+        <f>ABS(J385-C385)</f>
         <v>0.24625544133364902</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>363</v>
       </c>
@@ -35538,12 +38191,12 @@
       <c r="K386">
         <v>1.83224921367664</v>
       </c>
-      <c r="L386">
-        <f t="shared" si="5"/>
+      <c r="M386">
+        <f>ABS(J386-C386)</f>
         <v>2.34146025746925</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>363</v>
       </c>
@@ -35574,12 +38227,12 @@
       <c r="K387">
         <v>0.15254654966111</v>
       </c>
-      <c r="L387">
-        <f t="shared" ref="L387:L440" si="6">ABS(J387-C387)</f>
+      <c r="M387">
+        <f>ABS(J387-C387)</f>
         <v>3.5821227887755991E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>363</v>
       </c>
@@ -35610,12 +38263,12 @@
       <c r="K388">
         <v>2.3570519136067101</v>
       </c>
-      <c r="L388">
-        <f t="shared" si="6"/>
+      <c r="M388">
+        <f>ABS(J388-C388)</f>
         <v>0.13490889461691014</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>363</v>
       </c>
@@ -35646,12 +38299,12 @@
       <c r="K389">
         <v>-0.19602802374943101</v>
       </c>
-      <c r="L389">
-        <f t="shared" si="6"/>
+      <c r="M389">
+        <f>ABS(J389-C389)</f>
         <v>2.575485385408947</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>363</v>
       </c>
@@ -35682,12 +38335,12 @@
       <c r="K390">
         <v>3.5126893413815599</v>
       </c>
-      <c r="L390">
-        <f t="shared" si="6"/>
+      <c r="M390">
+        <f>ABS(J390-C390)</f>
         <v>1.75200900301416</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>363</v>
       </c>
@@ -35718,12 +38371,12 @@
       <c r="K391">
         <v>1.73287998551345</v>
       </c>
-      <c r="L391">
-        <f t="shared" si="6"/>
+      <c r="M391">
+        <f>ABS(J391-C391)</f>
         <v>3.26853716265359</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>363</v>
       </c>
@@ -35754,12 +38407,12 @@
       <c r="K392">
         <v>7.2236469669087394E-2</v>
       </c>
-      <c r="L392">
-        <f t="shared" si="6"/>
+      <c r="M392">
+        <f>ABS(J392-C392)</f>
         <v>0.77292289047470708</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>363</v>
       </c>
@@ -35790,12 +38443,12 @@
       <c r="K393">
         <v>3.2292070204419798</v>
       </c>
-      <c r="L393">
-        <f t="shared" si="6"/>
+      <c r="M393">
+        <f>ABS(J393-C393)</f>
         <v>2.15867188039479</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -35826,12 +38479,12 @@
       <c r="K394">
         <v>1.95757332899602</v>
       </c>
-      <c r="L394">
-        <f t="shared" si="6"/>
+      <c r="M394">
+        <f>ABS(J394-C394)</f>
         <v>2.6570695154770596</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>363</v>
       </c>
@@ -35862,12 +38515,12 @@
       <c r="K395">
         <v>1.8345275574023101</v>
       </c>
-      <c r="L395">
-        <f t="shared" si="6"/>
+      <c r="M395">
+        <f>ABS(J395-C395)</f>
         <v>2.4130220276376799</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>363</v>
       </c>
@@ -35898,12 +38551,12 @@
       <c r="K396">
         <v>2.8689001213774601</v>
       </c>
-      <c r="L396">
-        <f t="shared" si="6"/>
+      <c r="M396">
+        <f>ABS(J396-C396)</f>
         <v>0.98770171386628025</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>363</v>
       </c>
@@ -35934,12 +38587,12 @@
       <c r="K397">
         <v>-0.176770279368338</v>
       </c>
-      <c r="L397">
-        <f t="shared" si="6"/>
+      <c r="M397">
+        <f>ABS(J397-C397)</f>
         <v>2.4121327788892661</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>363</v>
       </c>
@@ -35970,12 +38623,12 @@
       <c r="K398">
         <v>4.7679702276434002</v>
       </c>
-      <c r="L398">
-        <f t="shared" si="6"/>
+      <c r="M398">
+        <f>ABS(J398-C398)</f>
         <v>3.8460905517270505</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>363</v>
       </c>
@@ -36006,12 +38659,12 @@
       <c r="K399">
         <v>3.42585089767462</v>
       </c>
-      <c r="L399">
-        <f t="shared" si="6"/>
+      <c r="M399">
+        <f>ABS(J399-C399)</f>
         <v>1.884114269994615</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>363</v>
       </c>
@@ -36042,12 +38695,12 @@
       <c r="K400">
         <v>0.11627748726482399</v>
       </c>
-      <c r="L400">
-        <f t="shared" si="6"/>
+      <c r="M400">
+        <f>ABS(J400-C400)</f>
         <v>1.5913645279807389</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>363</v>
       </c>
@@ -36075,12 +38728,12 @@
       <c r="J401">
         <v>-0.76465804470910803</v>
       </c>
-      <c r="L401">
-        <f t="shared" si="6"/>
+      <c r="M401">
+        <f>ABS(J401-C401)</f>
         <v>0.93510426470910801</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>363</v>
       </c>
@@ -36108,12 +38761,12 @@
       <c r="J402">
         <v>-0.55698678568419302</v>
       </c>
-      <c r="L402">
-        <f t="shared" si="6"/>
+      <c r="M402">
+        <f>ABS(J402-C402)</f>
         <v>2.4561573106841932</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>363</v>
       </c>
@@ -36141,12 +38794,12 @@
       <c r="J403">
         <v>0.119185105020528</v>
       </c>
-      <c r="L403">
-        <f t="shared" si="6"/>
+      <c r="M403">
+        <f>ABS(J403-C403)</f>
         <v>5.1261114979472014E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>363</v>
       </c>
@@ -36174,12 +38827,12 @@
       <c r="J404">
         <v>-0.550331670659989</v>
       </c>
-      <c r="L404">
-        <f t="shared" si="6"/>
+      <c r="M404">
+        <f>ABS(J404-C404)</f>
         <v>6.5884080816599884</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>363</v>
       </c>
@@ -36205,7 +38858,7 @@
         <v>0.66622263342905996</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>363</v>
       </c>
@@ -36231,7 +38884,7 @@
         <v>1.0805363426786601</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>363</v>
       </c>
@@ -36254,7 +38907,7 @@
         <v>-0.46152195081763198</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>363</v>
       </c>
@@ -36277,7 +38930,7 @@
         <v>-2.5891516553269801E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>363</v>
       </c>
@@ -36300,7 +38953,7 @@
         <v>-8.8172883246897902E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>363</v>
       </c>
@@ -36323,7 +38976,7 @@
         <v>1.34005162501807E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>363</v>
       </c>
@@ -36346,7 +38999,7 @@
         <v>0.44618143117975201</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>363</v>
       </c>
@@ -36369,7 +39022,7 @@
         <v>2.5224614127409</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>363</v>
       </c>
@@ -36389,7 +39042,7 @@
         <v>-0.193560451097368</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>363</v>
       </c>
@@ -36409,7 +39062,7 @@
         <v>-0.221015636674746</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>363</v>
       </c>
@@ -36429,7 +39082,7 @@
         <v>0.32065192864983999</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>363</v>
       </c>
@@ -36449,7 +39102,7 @@
         <v>-2.46875820324703E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>363</v>
       </c>
@@ -36469,7 +39122,7 @@
         <v>-3.5690589221712699E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>363</v>
       </c>
@@ -36489,7 +39142,7 @@
         <v>-0.71009588311449001</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>363</v>
       </c>
@@ -36509,7 +39162,7 @@
         <v>1.6218985479690601E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>378</v>
       </c>
@@ -36532,11 +39185,14 @@
         <v>0.59338175952165095</v>
       </c>
       <c r="L420">
-        <f t="shared" si="6"/>
+        <v>-0.903279956219594</v>
+      </c>
+      <c r="M420">
+        <f>ABS(J420-C420)</f>
         <v>0.717163626521651</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>378</v>
       </c>
@@ -36559,11 +39215,14 @@
         <v>-9.5859448642158895E-2</v>
       </c>
       <c r="L421">
-        <f t="shared" si="6"/>
+        <v>1.1863670678679601</v>
+      </c>
+      <c r="M421">
+        <f>ABS(J421-C421)</f>
         <v>0.1032721326421589</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>378</v>
       </c>
@@ -36582,12 +39241,12 @@
       <c r="J422">
         <v>-0.105111008432095</v>
       </c>
-      <c r="L422">
-        <f t="shared" si="6"/>
+      <c r="M422">
+        <f>ABS(J422-C422)</f>
         <v>0.16360269643209502</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>378</v>
       </c>
@@ -36606,12 +39265,12 @@
       <c r="J423">
         <v>-0.11968725716909</v>
       </c>
-      <c r="L423">
-        <f t="shared" si="6"/>
+      <c r="M423">
+        <f>ABS(J423-C423)</f>
         <v>0.19228156416908998</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>378</v>
       </c>
@@ -36628,7 +39287,7 @@
         <v>-1.4788898261352299E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>378</v>
       </c>
@@ -36645,7 +39304,7 @@
         <v>0.66125751384265896</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>378</v>
       </c>
@@ -36659,7 +39318,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>378</v>
       </c>
@@ -36673,7 +39332,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>378</v>
       </c>
@@ -36687,7 +39346,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>389</v>
       </c>
@@ -36713,11 +39372,14 @@
         <v>0.152500049641275</v>
       </c>
       <c r="L429">
-        <f t="shared" si="6"/>
+        <v>-0.67631603518029804</v>
+      </c>
+      <c r="M429">
+        <f>ABS(J429-C429)</f>
         <v>2.1908247380081702</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>389</v>
       </c>
@@ -36743,11 +39405,14 @@
         <v>0.59497599579790394</v>
       </c>
       <c r="L430">
-        <f t="shared" si="6"/>
+        <v>-0.69734080456487302</v>
+      </c>
+      <c r="M430">
+        <f>ABS(J430-C430)</f>
         <v>0.56294939556506407</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>389</v>
       </c>
@@ -36767,7 +39432,7 @@
         <v>0.13319677306108099</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>389</v>
       </c>
@@ -36931,10 +39596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283CCA3F-6521-487A-843F-907DCE41724E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37001,7 +39666,7 @@
         <v>0.38403341275503977</v>
       </c>
       <c r="C7">
-        <f>AVERAGE(Sheet1!L:L)</f>
+        <f>AVERAGE(Sheet1!M:M)</f>
         <v>1.7051894805234689</v>
       </c>
     </row>
@@ -37012,6 +39677,15 @@
       <c r="B8">
         <f>PEARSON(Sheet1!K:K, Sheet1!C:C)</f>
         <v>0.296433259653893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9">
+        <f>PEARSON(Sheet1!L:L, Sheet1!C:C)</f>
+        <v>0.55726755506560344</v>
       </c>
     </row>
   </sheetData>

--- a/FLEX_RUNS.xlsx
+++ b/FLEX_RUNS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kyroyo\rosetta-antibody-ddgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58668E7-C130-4AD8-B522-D2C41564F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310FB8C4-0AB0-49D5-90C0-243F4A17BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27903,8 +27903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="N414" sqref="N414"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27988,8 +27988,8 @@
         <v>3.5026393269999998</v>
       </c>
       <c r="M2">
-        <f>ABS(J2-C2)</f>
-        <v>1.4884105237881098</v>
+        <f>ABS(L2-C2)</f>
+        <v>1.5026393269999998</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -28030,8 +28030,8 @@
         <v>2.0452196819999999</v>
       </c>
       <c r="M3">
-        <f>ABS(J3-C3)</f>
-        <v>3.4668235754848906</v>
+        <f>ABS(L3-C3)</f>
+        <v>2.8547803180000004</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -28065,10 +28065,6 @@
       <c r="K4">
         <v>5.6196484734869001</v>
       </c>
-      <c r="M4">
-        <f>ABS(J4-C4)</f>
-        <v>1.0442411022088001</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -28101,10 +28097,6 @@
       <c r="K5">
         <v>0.88799075139404504</v>
       </c>
-      <c r="M5">
-        <f>ABS(J5-C5)</f>
-        <v>4.9207024966933304</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -28137,10 +28129,6 @@
       <c r="K6">
         <v>5.0267024274175096</v>
       </c>
-      <c r="M6">
-        <f>ABS(J6-C6)</f>
-        <v>4.0810838404649896</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -28173,10 +28161,6 @@
       <c r="K7">
         <v>0.27175650932604101</v>
       </c>
-      <c r="M7">
-        <f>ABS(J7-C7)</f>
-        <v>1.123252832916205</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -28209,10 +28193,6 @@
       <c r="K8">
         <v>2.7914631778896299</v>
       </c>
-      <c r="M8">
-        <f>ABS(J8-C8)</f>
-        <v>0.31498524184589982</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -28245,10 +28225,6 @@
       <c r="K9">
         <v>0.59161791763863203</v>
       </c>
-      <c r="M9">
-        <f>ABS(J9-C9)</f>
-        <v>1.572406049889195</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -28281,10 +28257,6 @@
       <c r="K10">
         <v>1.5727244988782301</v>
       </c>
-      <c r="M10">
-        <f>ABS(J10-C10)</f>
-        <v>0.62764920576420025</v>
-      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -28317,10 +28289,6 @@
       <c r="K11">
         <v>-0.47505551725289402</v>
       </c>
-      <c r="M11">
-        <f>ABS(J11-C11)</f>
-        <v>1.0664316213291387</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -28360,8 +28328,8 @@
         <v>1.59491204555397</v>
       </c>
       <c r="M12">
-        <f>ABS(J12-C12)</f>
-        <v>0.94003324234172303</v>
+        <f t="shared" ref="M4:M67" si="0">ABS(L12-C12)</f>
+        <v>1.59491204555397</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -28402,8 +28370,8 @@
         <v>1.5755805880939899</v>
       </c>
       <c r="M13">
-        <f>ABS(J13-C13)</f>
-        <v>0.30481255271146002</v>
+        <f t="shared" si="0"/>
+        <v>0.81558058809398992</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -28437,10 +28405,6 @@
       <c r="K14">
         <v>0.20955974914922901</v>
       </c>
-      <c r="M14">
-        <f>ABS(J14-C14)</f>
-        <v>0.54070740726730948</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -28473,10 +28437,6 @@
       <c r="K15">
         <v>4.8412643079245699E-2</v>
       </c>
-      <c r="M15">
-        <f>ABS(J15-C15)</f>
-        <v>2.9962838287335938</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -28509,12 +28469,8 @@
       <c r="K16">
         <v>-0.87764762270853602</v>
       </c>
-      <c r="M16">
-        <f>ABS(J16-C16)</f>
-        <v>0.73306572535438996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -28545,12 +28501,8 @@
       <c r="K17">
         <v>-0.24055473713087799</v>
       </c>
-      <c r="M17">
-        <f>ABS(J17-C17)</f>
-        <v>1.9726048202811</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -28581,12 +28533,8 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <f>ABS(J18-C18)</f>
-        <v>0.55378339026106915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -28617,12 +28565,8 @@
       <c r="K19">
         <v>2.8715468964201998</v>
       </c>
-      <c r="M19">
-        <f>ABS(J19-C19)</f>
-        <v>0.88413037811529693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -28648,7 +28592,7 @@
         <v>2.8690240141784602</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -28674,7 +28618,7 @@
         <v>2.5986302294351802</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -28700,7 +28644,7 @@
         <v>2.9026029118971501</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -28726,7 +28670,7 @@
         <v>5.1893332266311498</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -28752,7 +28696,7 @@
         <v>1.5644990132659499E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -28778,7 +28722,7 @@
         <v>2.97955345631635E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -28801,7 +28745,7 @@
         <v>0.52561142532549598</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -28824,7 +28768,7 @@
         <v>7.5429590345538602E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -28847,7 +28791,7 @@
         <v>-0.41099777297495099</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -28870,7 +28814,7 @@
         <v>0.309768452003572</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -28890,7 +28834,7 @@
         <v>-0.46370839524506602</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -28910,7 +28854,7 @@
         <v>-1.05368607334521</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -29365,8 +29309,8 @@
         <v>-0.98575262745976</v>
       </c>
       <c r="M62">
-        <f>ABS(J62-C62)</f>
-        <v>1.008304342887713</v>
+        <f t="shared" si="0"/>
+        <v>0.60575262745976</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
@@ -29404,8 +29348,8 @@
         <v>-1.0060018294388999</v>
       </c>
       <c r="M63">
-        <f>ABS(J63-C63)</f>
-        <v>0.87376478129312996</v>
+        <f t="shared" si="0"/>
+        <v>0.51600182943889994</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
@@ -29436,10 +29380,6 @@
       <c r="J64">
         <v>-2.4935719854370202</v>
       </c>
-      <c r="M64">
-        <f>ABS(J64-C64)</f>
-        <v>2.3435719854370203</v>
-      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
@@ -29469,10 +29409,6 @@
       <c r="J65">
         <v>0.466763357530453</v>
       </c>
-      <c r="M65">
-        <f>ABS(J65-C65)</f>
-        <v>1.6763357530452994E-2</v>
-      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
@@ -29502,10 +29438,6 @@
       <c r="J66">
         <v>-0.211377502591858</v>
       </c>
-      <c r="M66">
-        <f>ABS(J66-C66)</f>
-        <v>0.74137750259185808</v>
-      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -29535,10 +29467,6 @@
       <c r="J67">
         <v>-3.26840576922713</v>
       </c>
-      <c r="M67">
-        <f>ABS(J67-C67)</f>
-        <v>3.3984057692271299</v>
-      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
@@ -29568,10 +29496,6 @@
       <c r="J68">
         <v>-1.28948135152486</v>
       </c>
-      <c r="M68">
-        <f>ABS(J68-C68)</f>
-        <v>0.72948135152485993</v>
-      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
@@ -29601,10 +29525,6 @@
       <c r="J69">
         <v>0.69647794081138203</v>
       </c>
-      <c r="M69">
-        <f>ABS(J69-C69)</f>
-        <v>1.546477940811382</v>
-      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
@@ -29684,8 +29604,8 @@
         <v>0.20487142332785799</v>
       </c>
       <c r="M72">
-        <f>ABS(J72-C72)</f>
-        <v>0.30368604012346623</v>
+        <f t="shared" ref="M68:M131" si="1">ABS(L72-C72)</f>
+        <v>4.5128576672142012E-2</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
@@ -29714,8 +29634,8 @@
         <v>5.2458900197780101E-2</v>
       </c>
       <c r="M73">
-        <f>ABS(J73-C73)</f>
-        <v>0.56491900541892404</v>
+        <f t="shared" si="1"/>
+        <v>0.55754109980221989</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
@@ -29740,10 +29660,6 @@
       <c r="J74">
         <v>-0.121904193962291</v>
       </c>
-      <c r="M74">
-        <f>ABS(J74-C74)</f>
-        <v>0.50190419396229102</v>
-      </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
@@ -29767,10 +29683,6 @@
       <c r="J75">
         <v>3.3184795746537898</v>
       </c>
-      <c r="M75">
-        <f>ABS(J75-C75)</f>
-        <v>3.4084795746537897</v>
-      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
@@ -30060,8 +29972,8 @@
         <v>5.4822437927943604</v>
       </c>
       <c r="M93">
-        <f>ABS(J93-C93)</f>
-        <v>1.4026828158621805</v>
+        <f t="shared" si="1"/>
+        <v>2.5822437927943604</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
@@ -30102,8 +30014,8 @@
         <v>1.6850264818051699</v>
       </c>
       <c r="M94">
-        <f>ABS(J94-C94)</f>
-        <v>0.88254290203675989</v>
+        <f t="shared" si="1"/>
+        <v>0.6850264818051699</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
@@ -30140,10 +30052,6 @@
       <c r="K95">
         <v>-0.13120638749678601</v>
       </c>
-      <c r="M95">
-        <f>ABS(J95-C95)</f>
-        <v>3.5733335209441699</v>
-      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
@@ -30179,12 +30087,8 @@
       <c r="K96">
         <v>-8.2088604681894106E-2</v>
       </c>
-      <c r="M96">
-        <f>ABS(J96-C96)</f>
-        <v>0.74628237927128704</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -30215,12 +30119,8 @@
       <c r="K97">
         <v>0.70697203420099797</v>
       </c>
-      <c r="M97">
-        <f>ABS(J97-C97)</f>
-        <v>2.63485057301336</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -30251,12 +30151,8 @@
       <c r="K98">
         <v>3.0239911882007098</v>
       </c>
-      <c r="M98">
-        <f>ABS(J98-C98)</f>
-        <v>0.27483253351439102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -30287,12 +30183,8 @@
       <c r="K99">
         <v>0.25847084741130799</v>
       </c>
-      <c r="M99">
-        <f>ABS(J99-C99)</f>
-        <v>1.4020211007141199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -30323,12 +30215,8 @@
       <c r="K100">
         <v>0.174669352189494</v>
       </c>
-      <c r="M100">
-        <f>ABS(J100-C100)</f>
-        <v>2.37353798302839</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -30356,12 +30244,8 @@
       <c r="J101">
         <v>-1.9739922587230401</v>
       </c>
-      <c r="M101">
-        <f>ABS(J101-C101)</f>
-        <v>3.2339922587230401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -30389,12 +30273,8 @@
       <c r="J102">
         <v>-0.11669960819467599</v>
       </c>
-      <c r="M102">
-        <f>ABS(J102-C102)</f>
-        <v>0.11669960819467599</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -30422,12 +30302,8 @@
       <c r="J103">
         <v>0.35873701050040802</v>
       </c>
-      <c r="M103">
-        <f>ABS(J103-C103)</f>
-        <v>0.45873701050040805</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -30455,12 +30331,8 @@
       <c r="J104">
         <v>0.443269906404475</v>
       </c>
-      <c r="M104">
-        <f>ABS(J104-C104)</f>
-        <v>0.29326990640447503</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -30488,12 +30360,8 @@
       <c r="J105">
         <v>-1.2081545412616801</v>
       </c>
-      <c r="M105">
-        <f>ABS(J105-C105)</f>
-        <v>1.2881545412616802</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -30521,12 +30389,8 @@
       <c r="J106">
         <v>5.1863451081713698</v>
       </c>
-      <c r="M106">
-        <f>ABS(J106-C106)</f>
-        <v>4.2863451081713695</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -30554,12 +30418,8 @@
       <c r="J107">
         <v>-4.2052154878277603</v>
       </c>
-      <c r="M107">
-        <f>ABS(J107-C107)</f>
-        <v>8.2052154878277612</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -30587,12 +30447,8 @@
       <c r="J108">
         <v>1.36182971772759</v>
       </c>
-      <c r="M108">
-        <f>ABS(J108-C108)</f>
-        <v>0.23817028227241011</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -30618,7 +30474,7 @@
         <v>0.66971645981639005</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -30644,7 +30500,7 @@
         <v>0.48930706390242401</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -30670,7 +30526,7 @@
         <v>-1.34543789154563</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -30881,8 +30737,8 @@
         <v>-2.2647896753071102</v>
       </c>
       <c r="M119">
-        <f>ABS(J119-C119)</f>
-        <v>1.2498929556056801</v>
+        <f t="shared" si="1"/>
+        <v>2.2047896753071101</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
@@ -30920,8 +30776,8 @@
         <v>-0.34805600700355999</v>
       </c>
       <c r="M120">
-        <f>ABS(J120-C120)</f>
-        <v>1.25502865481343</v>
+        <f t="shared" si="1"/>
+        <v>0.28805600700355999</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
@@ -30955,10 +30811,6 @@
       <c r="K121">
         <v>0.57523932984822701</v>
       </c>
-      <c r="M121">
-        <f>ABS(J121-C121)</f>
-        <v>0.84197151845477403</v>
-      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
@@ -30991,10 +30843,6 @@
       <c r="K122">
         <v>-4.0568126341895498E-3</v>
       </c>
-      <c r="M122">
-        <f>ABS(J122-C122)</f>
-        <v>1.4480602221654399</v>
-      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
@@ -31219,8 +31067,8 @@
         <v>0.115690236337604</v>
       </c>
       <c r="M133">
-        <f>ABS(J133-C133)</f>
-        <v>9.0813038425404016E-2</v>
+        <f t="shared" ref="M132:M195" si="2">ABS(L133-C133)</f>
+        <v>8.4309763662396009E-2</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
@@ -31261,8 +31109,8 @@
         <v>0.12397392157567901</v>
       </c>
       <c r="M134">
-        <f>ABS(J134-C134)</f>
-        <v>4.06131491564337E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12397392157567901</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
@@ -31296,10 +31144,6 @@
       <c r="K135">
         <v>-0.11191415331113599</v>
       </c>
-      <c r="M135">
-        <f>ABS(J135-C135)</f>
-        <v>1.0082734623986649</v>
-      </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
@@ -31332,10 +31176,6 @@
       <c r="K136">
         <v>-8.4529548638147295E-2</v>
       </c>
-      <c r="M136">
-        <f>ABS(J136-C136)</f>
-        <v>0.18060152279067562</v>
-      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
@@ -31368,10 +31208,6 @@
       <c r="K137">
         <v>1.54107985301925</v>
       </c>
-      <c r="M137">
-        <f>ABS(J137-C137)</f>
-        <v>0.42622792996062298</v>
-      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
@@ -31404,10 +31240,6 @@
       <c r="K138">
         <v>0.70053772257106095</v>
       </c>
-      <c r="M138">
-        <f>ABS(J138-C138)</f>
-        <v>0.52847345448352989</v>
-      </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
@@ -31440,10 +31272,6 @@
       <c r="K139">
         <v>-6.4574785580498395E-2</v>
       </c>
-      <c r="M139">
-        <f>ABS(J139-C139)</f>
-        <v>3.6558544328728015E-2</v>
-      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
@@ -31476,10 +31304,6 @@
       <c r="K140">
         <v>7.6267535896749894E-2</v>
       </c>
-      <c r="M140">
-        <f>ABS(J140-C140)</f>
-        <v>0.23774057857663131</v>
-      </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
@@ -31512,10 +31336,6 @@
       <c r="K141">
         <v>0.101482917344856</v>
       </c>
-      <c r="M141">
-        <f>ABS(J141-C141)</f>
-        <v>0.36983002421038691</v>
-      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
@@ -31548,10 +31368,6 @@
       <c r="K142">
         <v>0.159834536943435</v>
       </c>
-      <c r="M142">
-        <f>ABS(J142-C142)</f>
-        <v>1.105838941403908</v>
-      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
@@ -32027,8 +31843,8 @@
         <v>-0.203797737998411</v>
       </c>
       <c r="M166">
-        <f>ABS(J166-C166)</f>
-        <v>0.8095536487622661</v>
+        <f t="shared" si="2"/>
+        <v>0.60379773799841097</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.45">
@@ -32057,8 +31873,8 @@
         <v>0.15049413421111199</v>
       </c>
       <c r="M167">
-        <f>ABS(J167-C167)</f>
-        <v>0.18385823496200801</v>
+        <f t="shared" si="2"/>
+        <v>0.250494134211112</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.45">
@@ -32083,10 +31899,6 @@
       <c r="J168">
         <v>5.7336836377999099E-2</v>
       </c>
-      <c r="M168">
-        <f>ABS(J168-C168)</f>
-        <v>1.8426631636220008</v>
-      </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
@@ -32110,10 +31922,6 @@
       <c r="J169">
         <v>0.214083417678193</v>
       </c>
-      <c r="M169">
-        <f>ABS(J169-C169)</f>
-        <v>0.11408341767819299</v>
-      </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
@@ -32588,8 +32396,8 @@
         <v>3.71096961158998</v>
       </c>
       <c r="M200">
-        <f>ABS(J200-C200)</f>
-        <v>1.8091893767405398</v>
+        <f t="shared" ref="M196:M257" si="3">ABS(L200-C200)</f>
+        <v>2.3509696115899796</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.45">
@@ -32627,8 +32435,8 @@
         <v>2.9217909767979702</v>
       </c>
       <c r="M201">
-        <f>ABS(J201-C201)</f>
-        <v>0.4191280248019098</v>
+        <f t="shared" si="3"/>
+        <v>1.5617909767979701</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.45">
@@ -32662,10 +32470,6 @@
       <c r="K202">
         <v>4.3728364358566898</v>
       </c>
-      <c r="M202">
-        <f>ABS(J202-C202)</f>
-        <v>2.2156670728936101</v>
-      </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
@@ -32698,10 +32502,6 @@
       <c r="K203">
         <v>1.53946156795509</v>
       </c>
-      <c r="M203">
-        <f>ABS(J203-C203)</f>
-        <v>0.47380903773118899</v>
-      </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
@@ -32734,10 +32534,6 @@
       <c r="K204">
         <v>0.164230999981646</v>
       </c>
-      <c r="M204">
-        <f>ABS(J204-C204)</f>
-        <v>0.80239252515266302</v>
-      </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
@@ -32770,10 +32566,6 @@
       <c r="K205">
         <v>-1.1788819675553801</v>
       </c>
-      <c r="M205">
-        <f>ABS(J205-C205)</f>
-        <v>2.5552748974656301</v>
-      </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
@@ -32806,10 +32598,6 @@
       <c r="K206">
         <v>4.9159713506950498</v>
       </c>
-      <c r="M206">
-        <f>ABS(J206-C206)</f>
-        <v>3.2741741011619401</v>
-      </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
@@ -32846,8 +32634,8 @@
         <v>-9.5322119012735101E-2</v>
       </c>
       <c r="M207">
-        <f>ABS(J207-C207)</f>
-        <v>3.01262714445319</v>
+        <f t="shared" si="3"/>
+        <v>1.995322119012735</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.45">
@@ -32885,8 +32673,8 @@
         <v>1.30048956654286</v>
       </c>
       <c r="M208">
-        <f>ABS(J208-C208)</f>
-        <v>0.48561689881269499</v>
+        <f t="shared" si="3"/>
+        <v>1.13048956654286</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.45">
@@ -32920,10 +32708,6 @@
       <c r="K209">
         <v>0</v>
       </c>
-      <c r="M209">
-        <f>ABS(J209-C209)</f>
-        <v>0.32627709583386599</v>
-      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
@@ -32956,10 +32740,6 @@
       <c r="K210">
         <v>5.6686588614753797</v>
       </c>
-      <c r="M210">
-        <f>ABS(J210-C210)</f>
-        <v>4.0655093358799697</v>
-      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
@@ -32992,10 +32772,6 @@
       <c r="K211">
         <v>0.122098307216583</v>
       </c>
-      <c r="M211">
-        <f>ABS(J211-C211)</f>
-        <v>5.1407905357655359</v>
-      </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
@@ -33028,10 +32804,6 @@
       <c r="K212">
         <v>2.5304977790587602</v>
       </c>
-      <c r="M212">
-        <f>ABS(J212-C212)</f>
-        <v>1.1133139926685101</v>
-      </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
@@ -33064,10 +32836,6 @@
       <c r="K213">
         <v>2.7269244506094301</v>
       </c>
-      <c r="M213">
-        <f>ABS(J213-C213)</f>
-        <v>5.5627715700571763</v>
-      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
@@ -33100,10 +32868,6 @@
       <c r="K214">
         <v>4.0625790849609897</v>
       </c>
-      <c r="M214">
-        <f>ABS(J214-C214)</f>
-        <v>2.6735370614676603</v>
-      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
@@ -33136,10 +32900,6 @@
       <c r="K215">
         <v>2.2953300665752501</v>
       </c>
-      <c r="M215">
-        <f>ABS(J215-C215)</f>
-        <v>0.68486315920417007</v>
-      </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
@@ -33169,10 +32929,6 @@
       <c r="K216">
         <v>-2.0554672321350099E-2</v>
       </c>
-      <c r="M216">
-        <f>ABS(J216-C216)</f>
-        <v>4.6694967194192216</v>
-      </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
@@ -33310,8 +33066,8 @@
         <v>2.6372801354144402</v>
       </c>
       <c r="M221">
-        <f>ABS(J221-C221)</f>
-        <v>3.03556307578233</v>
+        <f t="shared" si="3"/>
+        <v>2.6972801354144402</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.45">
@@ -33346,8 +33102,8 @@
         <v>0.93415144859541199</v>
       </c>
       <c r="M222">
-        <f>ABS(J222-C222)</f>
-        <v>0.36424126530020007</v>
+        <f t="shared" si="3"/>
+        <v>0.20415144859541201</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.45">
@@ -33378,10 +33134,6 @@
       <c r="K223">
         <v>0.78576197464408304</v>
       </c>
-      <c r="M223">
-        <f>ABS(J223-C223)</f>
-        <v>0.52584816305536108</v>
-      </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
@@ -33411,10 +33163,6 @@
       <c r="K224">
         <v>0.17806903025548301</v>
       </c>
-      <c r="M224">
-        <f>ABS(J224-C224)</f>
-        <v>0.339620631160305</v>
-      </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
@@ -33591,8 +33339,8 @@
         <v>1.9342531020520199</v>
       </c>
       <c r="M232">
-        <f>ABS(J232-C232)</f>
-        <v>0.46129481685113993</v>
+        <f t="shared" si="3"/>
+        <v>0.26425310205202002</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.45">
@@ -33633,8 +33381,8 @@
         <v>0.25907180642448102</v>
       </c>
       <c r="M233">
-        <f>ABS(J233-C233)</f>
-        <v>1.7136142175313758</v>
+        <f t="shared" si="3"/>
+        <v>0.91092819357551891</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.45">
@@ -33668,10 +33416,6 @@
       <c r="K234">
         <v>3.1412066710325601</v>
       </c>
-      <c r="M234">
-        <f>ABS(J234-C234)</f>
-        <v>2.6797227627530003</v>
-      </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
@@ -33704,10 +33448,6 @@
       <c r="K235">
         <v>0.69667157489598097</v>
       </c>
-      <c r="M235">
-        <f>ABS(J235-C235)</f>
-        <v>1.8702737490464649</v>
-      </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
@@ -33740,10 +33480,6 @@
       <c r="K236">
         <v>1.6759706232470299</v>
       </c>
-      <c r="M236">
-        <f>ABS(J236-C236)</f>
-        <v>1.5604695970423925</v>
-      </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
@@ -33776,10 +33512,6 @@
       <c r="K237">
         <v>1.67438943268603</v>
       </c>
-      <c r="M237">
-        <f>ABS(J237-C237)</f>
-        <v>2.9935351048144998</v>
-      </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
@@ -33809,10 +33541,6 @@
       <c r="J238">
         <v>5.8411310004392298</v>
       </c>
-      <c r="M238">
-        <f>ABS(J238-C238)</f>
-        <v>5.1511310004392303</v>
-      </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
@@ -33842,10 +33570,6 @@
       <c r="J239">
         <v>14.872242699525801</v>
       </c>
-      <c r="M239">
-        <f>ABS(J239-C239)</f>
-        <v>12.052242699525801</v>
-      </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
@@ -33875,10 +33599,6 @@
       <c r="J240">
         <v>4.8039468150403</v>
       </c>
-      <c r="M240">
-        <f>ABS(J240-C240)</f>
-        <v>0.48394681504029968</v>
-      </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
@@ -33908,10 +33628,6 @@
       <c r="J241">
         <v>3.1300887910902002</v>
       </c>
-      <c r="M241">
-        <f>ABS(J241-C241)</f>
-        <v>1.5100887910902001</v>
-      </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
@@ -33941,10 +33657,6 @@
       <c r="J242">
         <v>1.4051942844413501</v>
       </c>
-      <c r="M242">
-        <f>ABS(J242-C242)</f>
-        <v>2.8248057155586501</v>
-      </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
@@ -33974,10 +33686,6 @@
       <c r="J243">
         <v>-0.279994278475169</v>
       </c>
-      <c r="M243">
-        <f>ABS(J243-C243)</f>
-        <v>1.4499942784751689</v>
-      </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
@@ -34224,8 +33932,8 @@
         <v>-4.2108551040854296</v>
       </c>
       <c r="M253">
-        <f>ABS(J253-C253)</f>
-        <v>1.5216971478251997</v>
+        <f t="shared" si="3"/>
+        <v>1.6154278130854296</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.45">
@@ -34266,8 +33974,8 @@
         <v>-2.0856736818986001</v>
       </c>
       <c r="M254">
-        <f>ABS(J254-C254)</f>
-        <v>1.0786104102436802</v>
+        <f t="shared" si="3"/>
+        <v>1.2528417778986003</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.45">
@@ -34308,8 +34016,8 @@
         <v>-2.8095750831634798</v>
       </c>
       <c r="M255">
-        <f>ABS(J255-C255)</f>
-        <v>1.32834071598007</v>
+        <f t="shared" si="3"/>
+        <v>1.3666245771634797</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.45">
@@ -34347,8 +34055,8 @@
         <v>2.1287641299791802</v>
       </c>
       <c r="M256">
-        <f>ABS(J256-C256)</f>
-        <v>2.5789815185957599</v>
+        <f t="shared" si="3"/>
+        <v>2.1287641299791802</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.45">
@@ -34386,8 +34094,8 @@
         <v>-3.31882212999502</v>
       </c>
       <c r="M257">
-        <f>ABS(J257-C257)</f>
-        <v>1.52997833894512</v>
+        <f t="shared" si="3"/>
+        <v>3.7458238889950199</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.45">
@@ -34421,10 +34129,6 @@
       <c r="K258">
         <v>16.5089505899522</v>
       </c>
-      <c r="M258">
-        <f>ABS(J258-C258)</f>
-        <v>5.3558658284408303</v>
-      </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
@@ -34457,10 +34161,6 @@
       <c r="K259">
         <v>6.7825329799664296</v>
       </c>
-      <c r="M259">
-        <f>ABS(J259-C259)</f>
-        <v>4.8266953410898896</v>
-      </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
@@ -34500,8 +34200,8 @@
         <v>4.4389026944945398</v>
       </c>
       <c r="M260">
-        <f>ABS(J260-C260)</f>
-        <v>3.0552591021224798</v>
+        <f t="shared" ref="M260:M321" si="4">ABS(L260-C260)</f>
+        <v>3.8744370724945396</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.45">
@@ -34542,8 +34242,8 @@
         <v>3.8385921182270502</v>
       </c>
       <c r="M261">
-        <f>ABS(J261-C261)</f>
-        <v>3.2766837592600599</v>
+        <f t="shared" si="4"/>
+        <v>3.3864426502270502</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.45">
@@ -34574,10 +34274,6 @@
       <c r="K262">
         <v>1.22611653632579</v>
       </c>
-      <c r="M262">
-        <f>ABS(J262-C262)</f>
-        <v>0.26152848559321007</v>
-      </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
@@ -34607,10 +34303,6 @@
       <c r="K263">
         <v>2.3437704070920499E-2</v>
       </c>
-      <c r="M263">
-        <f>ABS(J263-C263)</f>
-        <v>0.31687904702737302</v>
-      </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
@@ -34640,10 +34332,6 @@
       <c r="K264">
         <v>2.6271150994880998</v>
       </c>
-      <c r="M264">
-        <f>ABS(J264-C264)</f>
-        <v>2.4793781559831931</v>
-      </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
@@ -34673,10 +34361,6 @@
       <c r="K265">
         <v>-0.25467546215286302</v>
       </c>
-      <c r="M265">
-        <f>ABS(J265-C265)</f>
-        <v>0.93257350998059496</v>
-      </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
@@ -34706,10 +34390,6 @@
       <c r="K266">
         <v>3.1295203688483499</v>
       </c>
-      <c r="M266">
-        <f>ABS(J266-C266)</f>
-        <v>1.123158995906246</v>
-      </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
@@ -34739,10 +34419,6 @@
       <c r="K267">
         <v>0.15298583716250899</v>
       </c>
-      <c r="M267">
-        <f>ABS(J267-C267)</f>
-        <v>1.2825734881985671</v>
-      </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
@@ -34769,10 +34445,6 @@
       <c r="J268">
         <v>2.6958982013481498</v>
       </c>
-      <c r="M268">
-        <f>ABS(J268-C268)</f>
-        <v>1.2048707873481499</v>
-      </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
@@ -34799,10 +34471,6 @@
       <c r="J269">
         <v>1.52878308229965</v>
       </c>
-      <c r="M269">
-        <f>ABS(J269-C269)</f>
-        <v>1.2656532897003498</v>
-      </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
@@ -34829,10 +34497,6 @@
       <c r="J270">
         <v>0.245878410585055</v>
       </c>
-      <c r="M270">
-        <f>ABS(J270-C270)</f>
-        <v>2.2729423144149448</v>
-      </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
@@ -34859,10 +34523,6 @@
       <c r="J271">
         <v>5.1721646693439602</v>
       </c>
-      <c r="M271">
-        <f>ABS(J271-C271)</f>
-        <v>3.21011439334396</v>
-      </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
@@ -34889,10 +34549,6 @@
       <c r="J272">
         <v>9.9339868167135095E-2</v>
       </c>
-      <c r="M272">
-        <f>ABS(J272-C272)</f>
-        <v>1.6338148768328649</v>
-      </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
@@ -34919,10 +34575,6 @@
       <c r="J273">
         <v>3.3995787201406502</v>
       </c>
-      <c r="M273">
-        <f>ABS(J273-C273)</f>
-        <v>1.4702458661406501</v>
-      </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
@@ -35062,8 +34714,8 @@
         <v>5.4878314859762201</v>
       </c>
       <c r="M279">
-        <f>ABS(J279-C279)</f>
-        <v>2.4203880724901703</v>
+        <f t="shared" si="4"/>
+        <v>2.4152650029762199</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.45">
@@ -35098,8 +34750,8 @@
         <v>3.4490510379286401</v>
       </c>
       <c r="M280">
-        <f>ABS(J280-C280)</f>
-        <v>0.67538171881558995</v>
+        <f t="shared" si="4"/>
+        <v>0.37648455492863997</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.45">
@@ -35130,10 +34782,6 @@
       <c r="J281">
         <v>2.6355197882565702</v>
       </c>
-      <c r="M281">
-        <f>ABS(J281-C281)</f>
-        <v>0.40870011025657016</v>
-      </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
@@ -35163,10 +34811,6 @@
       <c r="J282">
         <v>6.96203428166427E-2</v>
       </c>
-      <c r="M282">
-        <f>ABS(J282-C282)</f>
-        <v>1.4069473181833574</v>
-      </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
@@ -35196,10 +34840,6 @@
       <c r="J283">
         <v>2.1226682032337001</v>
       </c>
-      <c r="M283">
-        <f>ABS(J283-C283)</f>
-        <v>1.6375679232337002</v>
-      </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
@@ -35229,10 +34869,6 @@
       <c r="J284">
         <v>1.3284198015190201</v>
       </c>
-      <c r="M284">
-        <f>ABS(J284-C284)</f>
-        <v>1.3532855085190201</v>
-      </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
@@ -35318,8 +34954,8 @@
         <v>6.5935711804741002E-4</v>
       </c>
       <c r="M287">
-        <f>ABS(J287-C287)</f>
-        <v>0.46420463058931793</v>
+        <f t="shared" si="4"/>
+        <v>0.99212673811804741</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.45">
@@ -35360,8 +34996,8 @@
         <v>5.8849285140168801</v>
       </c>
       <c r="M288">
-        <f>ABS(J288-C288)</f>
-        <v>7.5762739520911193</v>
+        <f t="shared" si="4"/>
+        <v>7.4416990880168798</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.45">
@@ -35399,8 +35035,8 @@
         <v>1.8538857140790601</v>
       </c>
       <c r="M289">
-        <f>ABS(J289-C289)</f>
-        <v>1.1547326740300123E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.2855291920939989E-2</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.45">
@@ -35438,8 +35074,8 @@
         <v>6.3636634872658302</v>
       </c>
       <c r="M290">
-        <f>ABS(J290-C290)</f>
-        <v>3.1760682012674604</v>
+        <f t="shared" si="4"/>
+        <v>4.4907069892658305</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.45">
@@ -35470,10 +35106,6 @@
       <c r="J291">
         <v>4.1252569340242102</v>
       </c>
-      <c r="M291">
-        <f>ABS(J291-C291)</f>
-        <v>1.1000701150242103</v>
-      </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
@@ -35503,10 +35135,6 @@
       <c r="J292">
         <v>5.9586850165639502</v>
       </c>
-      <c r="M292">
-        <f>ABS(J292-C292)</f>
-        <v>1.7345062445639501</v>
-      </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
@@ -35546,8 +35174,8 @@
         <v>-2.6576529658463999</v>
       </c>
       <c r="M293">
-        <f>ABS(J293-C293)</f>
-        <v>2.1030343878006099</v>
+        <f t="shared" si="4"/>
+        <v>1.5665258061536003</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.45">
@@ -35588,8 +35216,8 @@
         <v>-3.6654089874752098</v>
       </c>
       <c r="M294">
-        <f>ABS(J294-C294)</f>
-        <v>1.90183364537946</v>
+        <f t="shared" si="4"/>
+        <v>1.3779712214752098</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.45">
@@ -35623,10 +35251,6 @@
       <c r="K295">
         <v>0.780004412714424</v>
       </c>
-      <c r="M295">
-        <f>ABS(J295-C295)</f>
-        <v>4.3754686702149401</v>
-      </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
@@ -35659,10 +35283,6 @@
       <c r="K296">
         <v>0.79394604083536202</v>
       </c>
-      <c r="M296">
-        <f>ABS(J296-C296)</f>
-        <v>0.43760932819354004</v>
-      </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
@@ -35702,8 +35322,8 @@
         <v>-3.1056052173576898</v>
       </c>
       <c r="M297">
-        <f>ABS(J297-C297)</f>
-        <v>0.22397409862313999</v>
+        <f t="shared" si="4"/>
+        <v>8.0418398357689824E-2</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.45">
@@ -35744,8 +35364,8 @@
         <v>-1.52991409506284E-2</v>
       </c>
       <c r="M298">
-        <f>ABS(J298-C298)</f>
-        <v>7.4123406873959796E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.0731466720493716</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.45">
@@ -35779,10 +35399,6 @@
       <c r="K299">
         <v>0</v>
       </c>
-      <c r="M299">
-        <f>ABS(J299-C299)</f>
-        <v>1.3122904399670772</v>
-      </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
@@ -35815,10 +35431,6 @@
       <c r="K300">
         <v>1.5113909568141</v>
       </c>
-      <c r="M300">
-        <f>ABS(J300-C300)</f>
-        <v>0.94835066959562009</v>
-      </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
@@ -35858,8 +35470,8 @@
         <v>-3.62389203777852</v>
       </c>
       <c r="M301">
-        <f>ABS(J301-C301)</f>
-        <v>1.7621172353063901</v>
+        <f t="shared" si="4"/>
+        <v>1.75093553977852</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.45">
@@ -35900,8 +35512,8 @@
         <v>-1.3453154496376101</v>
       </c>
       <c r="M302">
-        <f>ABS(J302-C302)</f>
-        <v>1.1534241243399899</v>
+        <f t="shared" si="4"/>
+        <v>1.40909995763761</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.45">
@@ -36000,8 +35612,8 @@
         <v>0.18191761605094101</v>
       </c>
       <c r="M305">
-        <f>ABS(J305-C305)</f>
-        <v>1.2832654724925201</v>
+        <f t="shared" si="4"/>
+        <v>2.1186586220509409</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.45">
@@ -36042,8 +35654,8 @@
         <v>1.6722607745517899</v>
       </c>
       <c r="M306">
-        <f>ABS(J306-C306)</f>
-        <v>2.0284963428721001</v>
+        <f t="shared" si="4"/>
+        <v>1.7360452825517898</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.45">
@@ -36077,10 +35689,6 @@
       <c r="K307">
         <v>4.3527722595093996</v>
       </c>
-      <c r="M307">
-        <f>ABS(J307-C307)</f>
-        <v>3.0279253875604697</v>
-      </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
@@ -36113,10 +35721,6 @@
       <c r="K308">
         <v>5.1329443693536598</v>
       </c>
-      <c r="M308">
-        <f>ABS(J308-C308)</f>
-        <v>3.4538952455694396</v>
-      </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
@@ -36147,8 +35751,8 @@
         <v>0.53233379805519598</v>
       </c>
       <c r="M309">
-        <f>ABS(J309-C309)</f>
-        <v>1.033929786548879</v>
+        <f t="shared" si="4"/>
+        <v>0.38712098605519596</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.45">
@@ -36180,8 +35784,8 @@
         <v>-1.86088941329137</v>
       </c>
       <c r="M310">
-        <f>ABS(J310-C310)</f>
-        <v>1.45989070109351</v>
+        <f t="shared" si="4"/>
+        <v>1.8206114552913699</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.45">
@@ -36206,10 +35810,6 @@
       <c r="K311">
         <v>-2.5626768800848301</v>
       </c>
-      <c r="M311">
-        <f>ABS(J311-C311)</f>
-        <v>1.4387513015170301</v>
-      </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
@@ -36233,10 +35833,6 @@
       <c r="K312">
         <v>5.17141702636763E-2</v>
       </c>
-      <c r="M312">
-        <f>ABS(J312-C312)</f>
-        <v>7.5891943221414015E-2</v>
-      </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
@@ -36384,8 +35980,8 @@
         <v>-1.0122855732502101</v>
       </c>
       <c r="M319">
-        <f>ABS(J319-C319)</f>
-        <v>1.58121291690967</v>
+        <f t="shared" si="4"/>
+        <v>0.15005718925021005</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.45">
@@ -36426,8 +36022,8 @@
         <v>-0.75173941463231098</v>
       </c>
       <c r="M320">
-        <f>ABS(J320-C320)</f>
-        <v>2.0743980700263309</v>
+        <f t="shared" si="4"/>
+        <v>3.084571268632311</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.45">
@@ -36468,8 +36064,8 @@
         <v>4.7059553818407496</v>
       </c>
       <c r="M321">
-        <f>ABS(J321-C321)</f>
-        <v>5.1144451792753394</v>
+        <f t="shared" si="4"/>
+        <v>3.3248330288407493</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.45">
@@ -36503,10 +36099,6 @@
       <c r="K322">
         <v>0.239636585601783</v>
       </c>
-      <c r="M322">
-        <f>ABS(J322-C322)</f>
-        <v>0.46487067410848104</v>
-      </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
@@ -36539,10 +36131,6 @@
       <c r="K323">
         <v>1.3358908492303201</v>
       </c>
-      <c r="M323">
-        <f>ABS(J323-C323)</f>
-        <v>1.76928964141264</v>
-      </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
@@ -36575,10 +36163,6 @@
       <c r="K324">
         <v>-0.206443015805052</v>
       </c>
-      <c r="M324">
-        <f>ABS(J324-C324)</f>
-        <v>0.59316066133057599</v>
-      </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
@@ -36611,10 +36195,6 @@
       <c r="K325">
         <v>0.109291400866004</v>
       </c>
-      <c r="M325">
-        <f>ABS(J325-C325)</f>
-        <v>1.5265121037898501</v>
-      </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
@@ -36644,10 +36224,6 @@
       <c r="J326">
         <v>-0.70447346550818102</v>
       </c>
-      <c r="M326">
-        <f>ABS(J326-C326)</f>
-        <v>0.47557793450818098</v>
-      </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
@@ -36677,10 +36253,6 @@
       <c r="J327">
         <v>0.43358140221835101</v>
       </c>
-      <c r="M327">
-        <f>ABS(J327-C327)</f>
-        <v>1.226942555218351</v>
-      </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
@@ -36710,10 +36282,6 @@
       <c r="J328">
         <v>-3.9003284840085102</v>
       </c>
-      <c r="M328">
-        <f>ABS(J328-C328)</f>
-        <v>2.2529638130085101</v>
-      </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
@@ -36743,10 +36311,6 @@
       <c r="J329">
         <v>0.78478758033534102</v>
       </c>
-      <c r="M329">
-        <f>ABS(J329-C329)</f>
-        <v>1.1909048543353409</v>
-      </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
@@ -36786,8 +36350,8 @@
         <v>0.16984080579009</v>
       </c>
       <c r="M330">
-        <f>ABS(J330-C330)</f>
-        <v>0.24812571503639991</v>
+        <f t="shared" ref="M330:M384" si="5">ABS(L330-C330)</f>
+        <v>0.33315601379008997</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.45">
@@ -36828,8 +36392,8 @@
         <v>-1.00226886877871</v>
       </c>
       <c r="M331">
-        <f>ABS(J331-C331)</f>
-        <v>1.031589352000357</v>
+        <f t="shared" si="5"/>
+        <v>1.0960240977787099</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.45">
@@ -36863,10 +36427,6 @@
       <c r="K332">
         <v>1.41363281351004</v>
       </c>
-      <c r="M332">
-        <f>ABS(J332-C332)</f>
-        <v>0.93497157721300894</v>
-      </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
@@ -36899,10 +36459,6 @@
       <c r="K333">
         <v>-4.8971653186799802E-2</v>
       </c>
-      <c r="M333">
-        <f>ABS(J333-C333)</f>
-        <v>2.0124170694906005E-2</v>
-      </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
@@ -36935,10 +36491,6 @@
       <c r="K334">
         <v>-0.57165297157589501</v>
       </c>
-      <c r="M334">
-        <f>ABS(J334-C334)</f>
-        <v>1.0732142073736199</v>
-      </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
@@ -36978,8 +36530,8 @@
         <v>-2.54381972308801</v>
       </c>
       <c r="M335">
-        <f>ABS(J335-C335)</f>
-        <v>3.28633444262003</v>
+        <f t="shared" si="5"/>
+        <v>3.2206014990880099</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.45">
@@ -37020,8 +36572,8 @@
         <v>-4.3383873620692599</v>
       </c>
       <c r="M336">
-        <f>ABS(J336-C336)</f>
-        <v>4.5517496833322504</v>
+        <f t="shared" si="5"/>
+        <v>5.2475949560692596</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.45">
@@ -37055,10 +36607,6 @@
       <c r="K337">
         <v>0</v>
       </c>
-      <c r="M337">
-        <f>ABS(J337-C337)</f>
-        <v>0.11398872947547004</v>
-      </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
@@ -37091,10 +36639,6 @@
       <c r="K338">
         <v>-7.2145438984352897E-2</v>
       </c>
-      <c r="M338">
-        <f>ABS(J338-C338)</f>
-        <v>0.59582080406280191</v>
-      </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
@@ -37127,10 +36671,6 @@
       <c r="K339">
         <v>5.8965785814398197</v>
       </c>
-      <c r="M339">
-        <f>ABS(J339-C339)</f>
-        <v>1.0668406203677203</v>
-      </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
@@ -37163,10 +36703,6 @@
       <c r="K340">
         <v>0</v>
       </c>
-      <c r="M340">
-        <f>ABS(J340-C340)</f>
-        <v>1.4157322936900698</v>
-      </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
@@ -37199,10 +36735,6 @@
       <c r="K341">
         <v>-0.27010443897402098</v>
       </c>
-      <c r="M341">
-        <f>ABS(J341-C341)</f>
-        <v>0.36090146866094508</v>
-      </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
@@ -37235,10 +36767,6 @@
       <c r="K342">
         <v>1.09111955423941E-2</v>
       </c>
-      <c r="M342">
-        <f>ABS(J342-C342)</f>
-        <v>3.854754314906967</v>
-      </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
@@ -37271,10 +36799,6 @@
       <c r="K343">
         <v>0.74857525119618895</v>
       </c>
-      <c r="M343">
-        <f>ABS(J343-C343)</f>
-        <v>0.67780755829090999</v>
-      </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
@@ -37307,10 +36831,6 @@
       <c r="K344">
         <v>0.57564041386876796</v>
       </c>
-      <c r="M344">
-        <f>ABS(J344-C344)</f>
-        <v>1.3775379159816761</v>
-      </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
@@ -37399,8 +36919,8 @@
         <v>1.2288841093432401</v>
       </c>
       <c r="M347">
-        <f>ABS(J347-C347)</f>
-        <v>1.5588249581499201</v>
+        <f t="shared" si="5"/>
+        <v>0.90479323234324016</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.45">
@@ -37432,8 +36952,8 @@
         <v>0.12576591072979601</v>
       </c>
       <c r="M348">
-        <f>ABS(J348-C348)</f>
-        <v>0.85807876284873308</v>
+        <f t="shared" si="5"/>
+        <v>1.029078403729796</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.45">
@@ -37458,10 +36978,6 @@
       <c r="K349">
         <v>0.23704698879928399</v>
       </c>
-      <c r="M349">
-        <f>ABS(J349-C349)</f>
-        <v>1.9284721769539099</v>
-      </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
@@ -37485,10 +37001,6 @@
       <c r="K350">
         <v>-0.71622163424817697</v>
       </c>
-      <c r="M350">
-        <f>ABS(J350-C350)</f>
-        <v>3.5830926058416299</v>
-      </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
@@ -37575,8 +37087,8 @@
         <v>2.0688650910880302</v>
       </c>
       <c r="M355">
-        <f>ABS(J355-C355)</f>
-        <v>2.2557714278436198</v>
+        <f t="shared" si="5"/>
+        <v>2.1092752030880302</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.45">
@@ -37608,8 +37120,8 @@
         <v>1.43595770886049</v>
       </c>
       <c r="M356">
-        <f>ABS(J356-C356)</f>
-        <v>0.1565882624161401</v>
+        <f t="shared" si="5"/>
+        <v>7.3268364139509989E-2</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.45">
@@ -37637,10 +37149,6 @@
       <c r="K357">
         <v>3.75411010699945</v>
       </c>
-      <c r="M357">
-        <f>ABS(J357-C357)</f>
-        <v>2.12333388856191</v>
-      </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
@@ -37667,10 +37175,6 @@
       <c r="K358">
         <v>2.2815988238517</v>
       </c>
-      <c r="M358">
-        <f>ABS(J358-C358)</f>
-        <v>1.18843113166642</v>
-      </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
@@ -37691,10 +37195,6 @@
       <c r="J359">
         <v>1.61283674738424</v>
       </c>
-      <c r="M359">
-        <f>ABS(J359-C359)</f>
-        <v>1.55679510038424</v>
-      </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
@@ -37715,10 +37215,6 @@
       <c r="J360">
         <v>5.3888783741228501</v>
       </c>
-      <c r="M360">
-        <f>ABS(J360-C360)</f>
-        <v>4.6101894361228499</v>
-      </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
@@ -38072,8 +37568,8 @@
         <v>-0.51075631300503799</v>
       </c>
       <c r="M383">
-        <f>ABS(J383-C383)</f>
-        <v>1.3717875874557519</v>
+        <f t="shared" si="5"/>
+        <v>1.710785894005038</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.45">
@@ -38114,11 +37610,11 @@
         <v>1.0678115303797799</v>
       </c>
       <c r="M384">
-        <f>ABS(J384-C384)</f>
-        <v>0.77525675155682006</v>
-      </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>0.57616667337977989</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>363</v>
       </c>
@@ -38152,12 +37648,8 @@
       <c r="K385">
         <v>-0.29189128881744097</v>
       </c>
-      <c r="M385">
-        <f>ABS(J385-C385)</f>
-        <v>0.24625544133364902</v>
-      </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>363</v>
       </c>
@@ -38191,12 +37683,8 @@
       <c r="K386">
         <v>1.83224921367664</v>
       </c>
-      <c r="M386">
-        <f>ABS(J386-C386)</f>
-        <v>2.34146025746925</v>
-      </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>363</v>
       </c>
@@ -38227,12 +37715,8 @@
       <c r="K387">
         <v>0.15254654966111</v>
       </c>
-      <c r="M387">
-        <f>ABS(J387-C387)</f>
-        <v>3.5821227887755991E-2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>363</v>
       </c>
@@ -38263,12 +37747,8 @@
       <c r="K388">
         <v>2.3570519136067101</v>
       </c>
-      <c r="M388">
-        <f>ABS(J388-C388)</f>
-        <v>0.13490889461691014</v>
-      </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>363</v>
       </c>
@@ -38299,12 +37779,8 @@
       <c r="K389">
         <v>-0.19602802374943101</v>
       </c>
-      <c r="M389">
-        <f>ABS(J389-C389)</f>
-        <v>2.575485385408947</v>
-      </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>363</v>
       </c>
@@ -38335,12 +37811,8 @@
       <c r="K390">
         <v>3.5126893413815599</v>
       </c>
-      <c r="M390">
-        <f>ABS(J390-C390)</f>
-        <v>1.75200900301416</v>
-      </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>363</v>
       </c>
@@ -38371,12 +37843,8 @@
       <c r="K391">
         <v>1.73287998551345</v>
       </c>
-      <c r="M391">
-        <f>ABS(J391-C391)</f>
-        <v>3.26853716265359</v>
-      </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>363</v>
       </c>
@@ -38407,12 +37875,8 @@
       <c r="K392">
         <v>7.2236469669087394E-2</v>
       </c>
-      <c r="M392">
-        <f>ABS(J392-C392)</f>
-        <v>0.77292289047470708</v>
-      </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>363</v>
       </c>
@@ -38443,12 +37907,8 @@
       <c r="K393">
         <v>3.2292070204419798</v>
       </c>
-      <c r="M393">
-        <f>ABS(J393-C393)</f>
-        <v>2.15867188039479</v>
-      </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -38479,12 +37939,8 @@
       <c r="K394">
         <v>1.95757332899602</v>
       </c>
-      <c r="M394">
-        <f>ABS(J394-C394)</f>
-        <v>2.6570695154770596</v>
-      </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>363</v>
       </c>
@@ -38515,12 +37971,8 @@
       <c r="K395">
         <v>1.8345275574023101</v>
       </c>
-      <c r="M395">
-        <f>ABS(J395-C395)</f>
-        <v>2.4130220276376799</v>
-      </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>363</v>
       </c>
@@ -38551,12 +38003,8 @@
       <c r="K396">
         <v>2.8689001213774601</v>
       </c>
-      <c r="M396">
-        <f>ABS(J396-C396)</f>
-        <v>0.98770171386628025</v>
-      </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>363</v>
       </c>
@@ -38587,12 +38035,8 @@
       <c r="K397">
         <v>-0.176770279368338</v>
       </c>
-      <c r="M397">
-        <f>ABS(J397-C397)</f>
-        <v>2.4121327788892661</v>
-      </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>363</v>
       </c>
@@ -38623,12 +38067,8 @@
       <c r="K398">
         <v>4.7679702276434002</v>
       </c>
-      <c r="M398">
-        <f>ABS(J398-C398)</f>
-        <v>3.8460905517270505</v>
-      </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>363</v>
       </c>
@@ -38659,12 +38099,8 @@
       <c r="K399">
         <v>3.42585089767462</v>
       </c>
-      <c r="M399">
-        <f>ABS(J399-C399)</f>
-        <v>1.884114269994615</v>
-      </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>363</v>
       </c>
@@ -38695,12 +38131,8 @@
       <c r="K400">
         <v>0.11627748726482399</v>
       </c>
-      <c r="M400">
-        <f>ABS(J400-C400)</f>
-        <v>1.5913645279807389</v>
-      </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>363</v>
       </c>
@@ -38728,12 +38160,8 @@
       <c r="J401">
         <v>-0.76465804470910803</v>
       </c>
-      <c r="M401">
-        <f>ABS(J401-C401)</f>
-        <v>0.93510426470910801</v>
-      </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>363</v>
       </c>
@@ -38761,12 +38189,8 @@
       <c r="J402">
         <v>-0.55698678568419302</v>
       </c>
-      <c r="M402">
-        <f>ABS(J402-C402)</f>
-        <v>2.4561573106841932</v>
-      </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>363</v>
       </c>
@@ -38794,12 +38218,8 @@
       <c r="J403">
         <v>0.119185105020528</v>
       </c>
-      <c r="M403">
-        <f>ABS(J403-C403)</f>
-        <v>5.1261114979472014E-2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>363</v>
       </c>
@@ -38827,12 +38247,8 @@
       <c r="J404">
         <v>-0.550331670659989</v>
       </c>
-      <c r="M404">
-        <f>ABS(J404-C404)</f>
-        <v>6.5884080816599884</v>
-      </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>363</v>
       </c>
@@ -38858,7 +38274,7 @@
         <v>0.66622263342905996</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>363</v>
       </c>
@@ -38884,7 +38300,7 @@
         <v>1.0805363426786601</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>363</v>
       </c>
@@ -38907,7 +38323,7 @@
         <v>-0.46152195081763198</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>363</v>
       </c>
@@ -38930,7 +38346,7 @@
         <v>-2.5891516553269801E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>363</v>
       </c>
@@ -38953,7 +38369,7 @@
         <v>-8.8172883246897902E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>363</v>
       </c>
@@ -38976,7 +38392,7 @@
         <v>1.34005162501807E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>363</v>
       </c>
@@ -38999,7 +38415,7 @@
         <v>0.44618143117975201</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>363</v>
       </c>
@@ -39022,7 +38438,7 @@
         <v>2.5224614127409</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>363</v>
       </c>
@@ -39042,7 +38458,7 @@
         <v>-0.193560451097368</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>363</v>
       </c>
@@ -39062,7 +38478,7 @@
         <v>-0.221015636674746</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>363</v>
       </c>
@@ -39082,7 +38498,7 @@
         <v>0.32065192864983999</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>363</v>
       </c>
@@ -39188,8 +38604,8 @@
         <v>-0.903279956219594</v>
       </c>
       <c r="M420">
-        <f>ABS(J420-C420)</f>
-        <v>0.717163626521651</v>
+        <f t="shared" ref="M420:M430" si="6">ABS(L420-C420)</f>
+        <v>0.77949808921959396</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.45">
@@ -39218,8 +38634,8 @@
         <v>1.1863670678679601</v>
       </c>
       <c r="M421">
-        <f>ABS(J421-C421)</f>
-        <v>0.1032721326421589</v>
+        <f t="shared" si="6"/>
+        <v>1.1789543838679601</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.45">
@@ -39241,10 +38657,6 @@
       <c r="J422">
         <v>-0.105111008432095</v>
       </c>
-      <c r="M422">
-        <f>ABS(J422-C422)</f>
-        <v>0.16360269643209502</v>
-      </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
@@ -39265,10 +38677,6 @@
       <c r="J423">
         <v>-0.11968725716909</v>
       </c>
-      <c r="M423">
-        <f>ABS(J423-C423)</f>
-        <v>0.19228156416908998</v>
-      </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
@@ -39375,8 +38783,8 @@
         <v>-0.67631603518029804</v>
       </c>
       <c r="M429">
-        <f>ABS(J429-C429)</f>
-        <v>2.1908247380081702</v>
+        <f t="shared" si="6"/>
+        <v>8.8587255180298086E-2</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.45">
@@ -39408,8 +38816,8 @@
         <v>-0.69734080456487302</v>
       </c>
       <c r="M430">
-        <f>ABS(J430-C430)</f>
-        <v>0.56294939556506407</v>
+        <f t="shared" si="6"/>
+        <v>1.5031801635648732</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.45">
@@ -39599,7 +39007,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39665,10 +39073,6 @@
         <f>PEARSON(Sheet1!J:J, Sheet1!C:C)</f>
         <v>0.38403341275503977</v>
       </c>
-      <c r="C7">
-        <f>AVERAGE(Sheet1!M:M)</f>
-        <v>1.7051894805234689</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -39686,6 +39090,10 @@
       <c r="B9">
         <f>PEARSON(Sheet1!L:L, Sheet1!C:C)</f>
         <v>0.55726755506560344</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(Sheet1!M:M)</f>
+        <v>1.5520417548812238</v>
       </c>
     </row>
   </sheetData>

--- a/FLEX_RUNS.xlsx
+++ b/FLEX_RUNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kyroyo\rosetta-antibody-ddgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310FB8C4-0AB0-49D5-90C0-243F4A17BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F98E5F-A92D-4F48-8916-7E9A17507379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ddg_run_12_3_r_FLEX" sheetId="1" r:id="rId1"/>
@@ -8220,18 +8220,36 @@
                 <c:pt idx="1">
                   <c:v>1.93515062459818</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8545177084597801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4571616846454001</c:v>
+                </c:pt>
                 <c:pt idx="10">
                   <c:v>1.06102511235792</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.92241468420712402</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.114993611286327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9925532014449299E-2</c:v>
+                </c:pt>
                 <c:pt idx="60">
                   <c:v>-0.255010662886206</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-1.9675810496485699</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1224662313634301E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61429707729462202</c:v>
+                </c:pt>
                 <c:pt idx="91">
                   <c:v>4.5844647546288799</c:v>
                 </c:pt>
@@ -8239,10 +8257,16 @@
                   <c:v>2.0979674336762799</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.76917968846523299</c:v>
+                  <c:v>-0.16315301425116499</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-7.6001913827421899E-2</c:v>
+                  <c:v>-0.17209986442245201</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.6532270115464902</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-7.1521434147052698E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>7.0996986661102698E-2</c:v>
@@ -8250,12 +8274,24 @@
                 <c:pt idx="132">
                   <c:v>0.17140020238072701</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.42552363206645999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.57318300111273E-2</c:v>
+                </c:pt>
                 <c:pt idx="230">
                   <c:v>2.2259462434990902</c:v>
                 </c:pt>
                 <c:pt idx="231">
                   <c:v>-0.20335409103658</c:v>
                 </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.7546391371547401</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.43154289143096303</c:v>
+                </c:pt>
                 <c:pt idx="251">
                   <c:v>-4.7634741345402203</c:v>
                 </c:pt>
@@ -8271,6 +8307,12 @@
                 <c:pt idx="259">
                   <c:v>4.0089537872576697</c:v>
                 </c:pt>
+                <c:pt idx="260">
+                  <c:v>1.18241154441592</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-2.1118085350508398E-2</c:v>
+                </c:pt>
                 <c:pt idx="285">
                   <c:v>6.5892851582102493E-2</c:v>
                 </c:pt>
@@ -8283,30 +8325,60 @@
                 <c:pt idx="288">
                   <c:v>6.3860986058307896</c:v>
                 </c:pt>
+                <c:pt idx="289">
+                  <c:v>4.3572243571501899</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>5.25249875392542</c:v>
+                </c:pt>
                 <c:pt idx="291">
                   <c:v>-0.43985307182051597</c:v>
                 </c:pt>
                 <c:pt idx="292">
                   <c:v>-4.1210328193525703</c:v>
                 </c:pt>
+                <c:pt idx="293">
+                  <c:v>-2.6925482187320302</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.6095053532035399</c:v>
+                </c:pt>
                 <c:pt idx="295">
                   <c:v>-3.7438834323291701</c:v>
                 </c:pt>
                 <c:pt idx="296">
                   <c:v>0.18982700571496</c:v>
                 </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.27235917544872701</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.7022852747133501</c:v>
+                </c:pt>
                 <c:pt idx="299">
                   <c:v>-3.5652570672162298</c:v>
                 </c:pt>
                 <c:pt idx="300">
                   <c:v>-1.35137464813269</c:v>
                 </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.66969967021285803</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.51651330546628</c:v>
+                </c:pt>
                 <c:pt idx="303">
                   <c:v>-0.27194963070406603</c:v>
                 </c:pt>
                 <c:pt idx="304">
                   <c:v>1.97288343595895</c:v>
                 </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.9728991813169099</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>5.4558430672037304</c:v>
+                </c:pt>
                 <c:pt idx="317">
                   <c:v>-0.53914752540131305</c:v>
                 </c:pt>
@@ -8316,18 +8388,36 @@
                 <c:pt idx="319">
                   <c:v>4.7698990042701404</c:v>
                 </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.294959002964296</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2.9544510025566399</c:v>
+                </c:pt>
                 <c:pt idx="328">
                   <c:v>9.2451568851447501E-3</c:v>
                 </c:pt>
                 <c:pt idx="329">
                   <c:v>-0.926101205304657</c:v>
                 </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.52803081818935405</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>9.5748779825989894E-2</c:v>
+                </c:pt>
                 <c:pt idx="333">
                   <c:v>-2.7200947622460299</c:v>
                 </c:pt>
                 <c:pt idx="334">
                   <c:v>-4.31615855779076</c:v>
                 </c:pt>
+                <c:pt idx="335">
+                  <c:v>-2.0502628354242901E-2</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-2.6766325079352098E-2</c:v>
+                </c:pt>
                 <c:pt idx="381">
                   <c:v>-0.119417880560895</c:v>
                 </c:pt>
@@ -8335,10 +8425,16 @@
                   <c:v>0.97745942203976199</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>-0.39729046514652899</c:v>
+                  <c:v>-0.227861375864335</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1.49201197353681</c:v>
+                  <c:v>1.7420039192239001</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.25220496826012301</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2.6757311355870299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18407,7 +18503,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E9E3F1BD-F665-4720-8DBA-8608855B5472}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27901,15 +27997,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M440"/>
+  <dimension ref="A1:O440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27946,11 +28042,11 @@
       <c r="L1" t="s">
         <v>410</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -27987,12 +28083,12 @@
       <c r="L2">
         <v>3.5026393269999998</v>
       </c>
-      <c r="M2">
-        <f>ABS(L2-C2)</f>
-        <v>1.5026393269999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <f>ABS(H2-C2)</f>
+        <v>1.3494970193031599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -28029,12 +28125,12 @@
       <c r="L3">
         <v>2.0452196819999999</v>
       </c>
-      <c r="M3">
-        <f>ABS(L3-C3)</f>
-        <v>2.8547803180000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="0">ABS(H3-C3)</f>
+        <v>2.9648493754018204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -28056,6 +28152,9 @@
       <c r="G4">
         <v>4.9362524519054203</v>
       </c>
+      <c r="H4">
+        <v>4.8545177084597801</v>
+      </c>
       <c r="I4">
         <v>5.0543032602527997</v>
       </c>
@@ -28065,8 +28164,12 @@
       <c r="K4">
         <v>5.6196484734869001</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.64548229154021985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -28088,6 +28191,9 @@
       <c r="G5">
         <v>2.2274743302853399</v>
       </c>
+      <c r="H5">
+        <v>2.4571616846454001</v>
+      </c>
       <c r="I5">
         <v>2.5477269126756199</v>
       </c>
@@ -28097,8 +28203,12 @@
       <c r="K5">
         <v>0.88799075139404504</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>4.4428383153546003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -28130,7 +28240,7 @@
         <v>5.0267024274175096</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -28162,7 +28272,7 @@
         <v>0.27175650932604101</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -28194,7 +28304,7 @@
         <v>2.7914631778896299</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -28226,7 +28336,7 @@
         <v>0.59161791763863203</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -28258,7 +28368,7 @@
         <v>1.5727244988782301</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -28290,7 +28400,7 @@
         <v>-0.47505551725289402</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -28327,12 +28437,12 @@
       <c r="L12">
         <v>1.59491204555397</v>
       </c>
-      <c r="M12">
-        <f t="shared" ref="M4:M67" si="0">ABS(L12-C12)</f>
-        <v>1.59491204555397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1.06102511235792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -28369,12 +28479,12 @@
       <c r="L13">
         <v>1.5755805880939899</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <f t="shared" si="0"/>
-        <v>0.81558058809398992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.16241468420712402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -28396,6 +28506,9 @@
       <c r="G14">
         <v>0.47285547315332199</v>
       </c>
+      <c r="H14">
+        <v>0.114993611286327</v>
+      </c>
       <c r="I14">
         <v>0.63660270133541397</v>
       </c>
@@ -28405,8 +28518,12 @@
       <c r="K14">
         <v>0.20955974914922901</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.45500638871367294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -28428,6 +28545,9 @@
       <c r="G15">
         <v>-0.120895213155699</v>
       </c>
+      <c r="H15">
+        <v>-1.9925532014449299E-2</v>
+      </c>
       <c r="I15">
         <v>-0.16674214833401399</v>
       </c>
@@ -28437,8 +28557,12 @@
       <c r="K15">
         <v>4.8412643079245699E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2.7499255320144491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -29092,7 +29216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -29106,7 +29230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -29120,7 +29244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -29134,7 +29258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -29148,7 +29272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -29162,7 +29286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -29176,7 +29300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -29190,7 +29314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -29204,7 +29328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -29218,7 +29342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -29232,7 +29356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -29246,7 +29370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -29260,7 +29384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -29274,7 +29398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -29308,12 +29432,12 @@
       <c r="L62">
         <v>-0.98575262745976</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <f t="shared" si="0"/>
-        <v>0.60575262745976</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.12498933711379401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -29347,12 +29471,12 @@
       <c r="L63">
         <v>-1.0060018294388999</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <f t="shared" si="0"/>
-        <v>0.51600182943889994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.47758104964857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -29374,14 +29498,21 @@
       <c r="G64">
         <v>0.327797071859458</v>
       </c>
+      <c r="H64">
+        <v>1.1224662313634301E-2</v>
+      </c>
       <c r="I64">
         <v>-0.163064651707372</v>
       </c>
       <c r="J64">
         <v>-2.4935719854370202</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>0.1612246623136343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -29403,14 +29534,21 @@
       <c r="G65">
         <v>-0.37486974367384301</v>
       </c>
+      <c r="H65">
+        <v>0.61429707729462202</v>
+      </c>
       <c r="I65">
         <v>0.61262348751324602</v>
       </c>
       <c r="J65">
         <v>0.466763357530453</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>0.16429707729462201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -29439,7 +29577,7 @@
         <v>-0.211377502591858</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -29468,7 +29606,7 @@
         <v>-3.26840576922713</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -29497,7 +29635,7 @@
         <v>-1.28948135152486</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -29526,7 +29664,7 @@
         <v>0.69647794081138203</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -29552,7 +29690,7 @@
         <v>-1.50158861074341</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -29578,7 +29716,7 @@
         <v>-0.34358904776318</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -29603,12 +29741,8 @@
       <c r="L72">
         <v>0.20487142332785799</v>
       </c>
-      <c r="M72">
-        <f t="shared" ref="M68:M131" si="1">ABS(L72-C72)</f>
-        <v>4.5128576672142012E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -29633,12 +29767,8 @@
       <c r="L73">
         <v>5.2458900197780101E-2</v>
       </c>
-      <c r="M73">
-        <f t="shared" si="1"/>
-        <v>0.55754109980221989</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -29661,7 +29791,7 @@
         <v>-0.121904193962291</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -29684,7 +29814,7 @@
         <v>3.3184795746537898</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -29701,7 +29831,7 @@
         <v>0.108804922980016</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -29718,7 +29848,7 @@
         <v>-0.456172575713571</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -29735,7 +29865,7 @@
         <v>3.42455165453757</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -29752,7 +29882,7 @@
         <v>-8.4547785001086506E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -29766,7 +29896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -29780,7 +29910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -29794,7 +29924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -29808,7 +29938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -29822,7 +29952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -29836,7 +29966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -29850,7 +29980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -29864,7 +29994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -29878,7 +30008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -29892,7 +30022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -29906,7 +30036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -29920,7 +30050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -29934,7 +30064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -29971,12 +30101,12 @@
       <c r="L93">
         <v>5.4822437927943604</v>
       </c>
-      <c r="M93">
-        <f t="shared" si="1"/>
-        <v>2.5822437927943604</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <f t="shared" ref="O67:O130" si="1">ABS(H93-C93)</f>
+        <v>1.68446475462888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -30013,12 +30143,12 @@
       <c r="L94">
         <v>1.6850264818051699</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <f t="shared" si="1"/>
-        <v>0.6850264818051699</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.0979674336762799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -30041,7 +30171,7 @@
         <v>-0.90235981678345001</v>
       </c>
       <c r="H95">
-        <v>0.76917968846523299</v>
+        <v>-0.16315301425116499</v>
       </c>
       <c r="I95">
         <v>-1.7612767212682601</v>
@@ -30052,8 +30182,12 @@
       <c r="K95">
         <v>-0.13120638749678601</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <f t="shared" si="1"/>
+        <v>0.24315301425116498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -30076,7 +30210,7 @@
         <v>-0.51375960697830503</v>
       </c>
       <c r="H96">
-        <v>-7.6001913827421899E-2</v>
+        <v>-0.17209986442245201</v>
       </c>
       <c r="I96">
         <v>0.41882417827559898</v>
@@ -30087,8 +30221,12 @@
       <c r="K96">
         <v>-8.2088604681894106E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <f t="shared" si="1"/>
+        <v>4.2099864422452005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -30110,6 +30248,9 @@
       <c r="G97">
         <v>4.0711400011592298</v>
       </c>
+      <c r="H97">
+        <v>3.6532270115464902</v>
+      </c>
       <c r="I97">
         <v>1.18705775333</v>
       </c>
@@ -30119,8 +30260,12 @@
       <c r="K97">
         <v>0.70697203420099797</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <f t="shared" si="1"/>
+        <v>3.3532270115464904</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -30142,6 +30287,9 @@
       <c r="G98">
         <v>-0.90345768157180795</v>
       </c>
+      <c r="H98">
+        <v>-7.1521434147052698E-2</v>
+      </c>
       <c r="I98">
         <v>0.18883544117484199</v>
       </c>
@@ -30151,8 +30299,12 @@
       <c r="K98">
         <v>3.0239911882007098</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <f t="shared" si="1"/>
+        <v>0.43847856585294731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -30184,7 +30336,7 @@
         <v>0.25847084741130799</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -30216,7 +30368,7 @@
         <v>0.174669352189494</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -30245,7 +30397,7 @@
         <v>-1.9739922587230401</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -30274,7 +30426,7 @@
         <v>-0.11669960819467599</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -30303,7 +30455,7 @@
         <v>0.35873701050040802</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -30332,7 +30484,7 @@
         <v>0.443269906404475</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -30361,7 +30513,7 @@
         <v>-1.2081545412616801</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -30390,7 +30542,7 @@
         <v>5.1863451081713698</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -30419,7 +30571,7 @@
         <v>-4.2052154878277603</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -30448,7 +30600,7 @@
         <v>1.36182971772759</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -30474,7 +30626,7 @@
         <v>0.66971645981639005</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -30500,7 +30652,7 @@
         <v>0.48930706390242401</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -30526,7 +30678,7 @@
         <v>-1.34543789154563</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -30552,7 +30704,7 @@
         <v>-0.31157524412619703</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -30578,7 +30730,7 @@
         <v>-0.35916263898447998</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -30604,7 +30756,7 @@
         <v>4.0376578036378703</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -30630,7 +30782,7 @@
         <v>1.2617647820748901</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -30656,7 +30808,7 @@
         <v>-0.54340023114395897</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -30679,7 +30831,7 @@
         <v>1.42213697652368</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -30702,7 +30854,7 @@
         <v>-2.23936525058493</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -30736,12 +30888,8 @@
       <c r="L119">
         <v>-2.2647896753071102</v>
       </c>
-      <c r="M119">
-        <f t="shared" si="1"/>
-        <v>2.2047896753071101</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -30775,12 +30923,8 @@
       <c r="L120">
         <v>-0.34805600700355999</v>
       </c>
-      <c r="M120">
-        <f t="shared" si="1"/>
-        <v>0.28805600700355999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -30812,7 +30956,7 @@
         <v>0.57523932984822701</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -30844,7 +30988,7 @@
         <v>-4.0568126341895498E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -30870,7 +31014,7 @@
         <v>-5.9662362178278201E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -30890,7 +31034,7 @@
         <v>3.9626816368217903E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -30910,7 +31054,7 @@
         <v>-0.55926459777692705</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -30927,7 +31071,7 @@
         <v>1.7469813585032099</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -30944,7 +31088,7 @@
         <v>0.58561232910069505</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -30961,7 +31105,7 @@
         <v>0.67850902319842099</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -30978,7 +31122,7 @@
         <v>2.8720344670320599</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -30995,7 +31139,7 @@
         <v>2.3659610219725402</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -31012,7 +31156,7 @@
         <v>-0.46512684046001501</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -31029,7 +31173,7 @@
         <v>2.9692449118448101</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>151</v>
       </c>
@@ -31066,12 +31210,12 @@
       <c r="L133">
         <v>0.115690236337604</v>
       </c>
-      <c r="M133">
-        <f t="shared" ref="M132:M195" si="2">ABS(L133-C133)</f>
-        <v>8.4309763662396009E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O133">
+        <f t="shared" ref="O131:O194" si="2">ABS(H133-C133)</f>
+        <v>0.1290030133388973</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -31108,12 +31252,12 @@
       <c r="L134">
         <v>0.12397392157567901</v>
       </c>
-      <c r="M134">
+      <c r="O134">
         <f t="shared" si="2"/>
-        <v>0.12397392157567901</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.17140020238072701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -31135,6 +31279,9 @@
       <c r="G135">
         <v>-0.51633205695725304</v>
       </c>
+      <c r="H135">
+        <v>-0.42552363206645999</v>
+      </c>
       <c r="I135">
         <v>-0.31006018750586001</v>
       </c>
@@ -31144,8 +31291,12 @@
       <c r="K135">
         <v>-0.11191415331113599</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O135">
+        <f t="shared" si="2"/>
+        <v>1.1255236320664599</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -31167,6 +31318,9 @@
       <c r="G136">
         <v>-9.73172967948812E-2</v>
       </c>
+      <c r="H136">
+        <v>3.57318300111273E-2</v>
+      </c>
       <c r="I136">
         <v>3.47645384214047E-2</v>
       </c>
@@ -31176,8 +31330,12 @@
       <c r="K136">
         <v>-8.4529548638147295E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O136">
+        <f t="shared" si="2"/>
+        <v>0.16426816998887273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -31209,7 +31367,7 @@
         <v>1.54107985301925</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -31241,7 +31399,7 @@
         <v>0.70053772257106095</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -31273,7 +31431,7 @@
         <v>-6.4574785580498395E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -31305,7 +31463,7 @@
         <v>7.6267535896749894E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -31337,7 +31495,7 @@
         <v>0.101482917344856</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -31369,7 +31527,7 @@
         <v>0.159834536943435</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -31398,7 +31556,7 @@
         <v>8.3416066116114906E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -31747,7 +31905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>151</v>
       </c>
@@ -31761,7 +31919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -31775,7 +31933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>151</v>
       </c>
@@ -31789,7 +31947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>151</v>
       </c>
@@ -31803,7 +31961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>151</v>
       </c>
@@ -31817,7 +31975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>175</v>
       </c>
@@ -31842,12 +32000,8 @@
       <c r="L166">
         <v>-0.203797737998411</v>
       </c>
-      <c r="M166">
-        <f t="shared" si="2"/>
-        <v>0.60379773799841097</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -31872,12 +32026,8 @@
       <c r="L167">
         <v>0.15049413421111199</v>
       </c>
-      <c r="M167">
-        <f t="shared" si="2"/>
-        <v>0.250494134211112</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -31900,7 +32050,7 @@
         <v>5.7336836377999099E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -31923,7 +32073,7 @@
         <v>0.214083417678193</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>175</v>
       </c>
@@ -31940,7 +32090,7 @@
         <v>-1.0884111884714001</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -31957,7 +32107,7 @@
         <v>0.39975301578087902</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -31974,7 +32124,7 @@
         <v>-0.288780036565913</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -31991,7 +32141,7 @@
         <v>-8.7624494631836497E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -32008,7 +32158,7 @@
         <v>1.52604135595483</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -32025,7 +32175,7 @@
         <v>1.0084427397328</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -32263,7 +32413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>175</v>
       </c>
@@ -32277,7 +32427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>175</v>
       </c>
@@ -32291,7 +32441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -32305,7 +32455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>175</v>
       </c>
@@ -32319,7 +32469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>175</v>
       </c>
@@ -32333,7 +32483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>175</v>
       </c>
@@ -32347,7 +32497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>175</v>
       </c>
@@ -32361,7 +32511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>177</v>
       </c>
@@ -32395,12 +32545,8 @@
       <c r="L200">
         <v>3.71096961158998</v>
       </c>
-      <c r="M200">
-        <f t="shared" ref="M196:M257" si="3">ABS(L200-C200)</f>
-        <v>2.3509696115899796</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>177</v>
       </c>
@@ -32434,12 +32580,8 @@
       <c r="L201">
         <v>2.9217909767979702</v>
       </c>
-      <c r="M201">
-        <f t="shared" si="3"/>
-        <v>1.5617909767979701</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>177</v>
       </c>
@@ -32471,7 +32613,7 @@
         <v>4.3728364358566898</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>177</v>
       </c>
@@ -32503,7 +32645,7 @@
         <v>1.53946156795509</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>177</v>
       </c>
@@ -32535,7 +32677,7 @@
         <v>0.164230999981646</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>177</v>
       </c>
@@ -32567,7 +32709,7 @@
         <v>-1.1788819675553801</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>177</v>
       </c>
@@ -32599,7 +32741,7 @@
         <v>4.9159713506950498</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>185</v>
       </c>
@@ -32633,12 +32775,8 @@
       <c r="L207">
         <v>-9.5322119012735101E-2</v>
       </c>
-      <c r="M207">
-        <f t="shared" si="3"/>
-        <v>1.995322119012735</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>185</v>
       </c>
@@ -32672,12 +32810,8 @@
       <c r="L208">
         <v>1.30048956654286</v>
       </c>
-      <c r="M208">
-        <f t="shared" si="3"/>
-        <v>1.13048956654286</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>185</v>
       </c>
@@ -32709,7 +32843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>185</v>
       </c>
@@ -32741,7 +32875,7 @@
         <v>5.6686588614753797</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>185</v>
       </c>
@@ -32773,7 +32907,7 @@
         <v>0.122098307216583</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>185</v>
       </c>
@@ -32805,7 +32939,7 @@
         <v>2.5304977790587602</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>185</v>
       </c>
@@ -32837,7 +32971,7 @@
         <v>2.7269244506094301</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>185</v>
       </c>
@@ -32869,7 +33003,7 @@
         <v>4.0625790849609897</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>185</v>
       </c>
@@ -32901,7 +33035,7 @@
         <v>2.2953300665752501</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>185</v>
       </c>
@@ -32930,7 +33064,7 @@
         <v>-2.0554672321350099E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>185</v>
       </c>
@@ -32956,7 +33090,7 @@
         <v>-0.52109748507368703</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>185</v>
       </c>
@@ -32982,7 +33116,7 @@
         <v>2.7267895797233899</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>185</v>
       </c>
@@ -33008,7 +33142,7 @@
         <v>3.1277811787958798E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>185</v>
       </c>
@@ -33034,7 +33168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>194</v>
       </c>
@@ -33065,12 +33199,8 @@
       <c r="L221">
         <v>2.6372801354144402</v>
       </c>
-      <c r="M221">
-        <f t="shared" si="3"/>
-        <v>2.6972801354144402</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>194</v>
       </c>
@@ -33101,12 +33231,8 @@
       <c r="L222">
         <v>0.93415144859541199</v>
       </c>
-      <c r="M222">
-        <f t="shared" si="3"/>
-        <v>0.20415144859541201</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>194</v>
       </c>
@@ -33135,7 +33261,7 @@
         <v>0.78576197464408304</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>194</v>
       </c>
@@ -33164,7 +33290,7 @@
         <v>0.17806903025548301</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>194</v>
       </c>
@@ -33184,7 +33310,7 @@
         <v>-0.68028751200945403</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>194</v>
       </c>
@@ -33204,7 +33330,7 @@
         <v>5.5571600716848399E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>194</v>
       </c>
@@ -33224,7 +33350,7 @@
         <v>-0.77441736980763298</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>194</v>
       </c>
@@ -33244,7 +33370,7 @@
         <v>-1.4822114758540901</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>194</v>
       </c>
@@ -33264,7 +33390,7 @@
         <v>0.43821369167353602</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>194</v>
       </c>
@@ -33284,7 +33410,7 @@
         <v>-7.8171463264879997E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>194</v>
       </c>
@@ -33301,7 +33427,7 @@
         <v>2.8988753161857801</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -33338,12 +33464,12 @@
       <c r="L232">
         <v>1.9342531020520199</v>
       </c>
-      <c r="M232">
-        <f t="shared" si="3"/>
-        <v>0.26425310205202002</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O232">
+        <f t="shared" ref="O195:O258" si="3">ABS(H232-C232)</f>
+        <v>0.55594624349909028</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>206</v>
       </c>
@@ -33380,12 +33506,12 @@
       <c r="L233">
         <v>0.25907180642448102</v>
       </c>
-      <c r="M233">
+      <c r="O233">
         <f t="shared" si="3"/>
-        <v>0.91092819357551891</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.37335409103658</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>206</v>
       </c>
@@ -33407,6 +33533,9 @@
       <c r="G234">
         <v>1.57701870894593</v>
       </c>
+      <c r="H234">
+        <v>1.7546391371547401</v>
+      </c>
       <c r="I234">
         <v>0.62370781031922795</v>
       </c>
@@ -33416,8 +33545,12 @@
       <c r="K234">
         <v>3.1412066710325601</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O234">
+        <f t="shared" si="3"/>
+        <v>1.41463913715474</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>206</v>
       </c>
@@ -33439,6 +33572,9 @@
       <c r="G235">
         <v>0.75176709387783303</v>
       </c>
+      <c r="H235">
+        <v>0.43154289143096303</v>
+      </c>
       <c r="I235">
         <v>1.33974291987742</v>
       </c>
@@ -33448,8 +33584,12 @@
       <c r="K235">
         <v>0.69667157489598097</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O235">
+        <f t="shared" si="3"/>
+        <v>1.6184571085690367</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -33481,7 +33621,7 @@
         <v>1.6759706232470299</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>206</v>
       </c>
@@ -33513,7 +33653,7 @@
         <v>1.67438943268603</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>206</v>
       </c>
@@ -33542,7 +33682,7 @@
         <v>5.8411310004392298</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>206</v>
       </c>
@@ -33571,7 +33711,7 @@
         <v>14.872242699525801</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>206</v>
       </c>
@@ -33600,7 +33740,7 @@
         <v>4.8039468150403</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>206</v>
       </c>
@@ -33629,7 +33769,7 @@
         <v>3.1300887910902002</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>206</v>
       </c>
@@ -33658,7 +33798,7 @@
         <v>1.4051942844413501</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>206</v>
       </c>
@@ -33687,7 +33827,7 @@
         <v>-0.279994278475169</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>206</v>
       </c>
@@ -33710,7 +33850,7 @@
         <v>0.88529164714518604</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>206</v>
       </c>
@@ -33733,7 +33873,7 @@
         <v>-1.1682706412368999</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>206</v>
       </c>
@@ -33756,7 +33896,7 @@
         <v>2.54490421000264</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>206</v>
       </c>
@@ -33779,7 +33919,7 @@
         <v>-0.53822116654600904</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>206</v>
       </c>
@@ -33802,7 +33942,7 @@
         <v>-0.34489968489287998</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>206</v>
       </c>
@@ -33825,7 +33965,7 @@
         <v>2.4058402423255698</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>206</v>
       </c>
@@ -33848,7 +33988,7 @@
         <v>-6.1318979910678504</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>206</v>
       </c>
@@ -33871,7 +34011,7 @@
         <v>-3.1477255785823202</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>206</v>
       </c>
@@ -33894,7 +34034,7 @@
         <v>-0.87926386998988104</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>227</v>
       </c>
@@ -33931,12 +34071,12 @@
       <c r="L253">
         <v>-4.2108551040854296</v>
       </c>
-      <c r="M253">
+      <c r="O253">
         <f t="shared" si="3"/>
-        <v>1.6154278130854296</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
+        <v>2.1680468435402203</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>230</v>
       </c>
@@ -33973,12 +34113,12 @@
       <c r="L254">
         <v>-2.0856736818986001</v>
       </c>
-      <c r="M254">
+      <c r="O254">
         <f t="shared" si="3"/>
-        <v>1.2528417778986003</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.2267215259605302</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>232</v>
       </c>
@@ -34015,12 +34155,12 @@
       <c r="L255">
         <v>-2.8095750831634798</v>
       </c>
-      <c r="M255">
+      <c r="O255">
         <f t="shared" si="3"/>
-        <v>1.3666245771634797</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.4468166288881099</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>234</v>
       </c>
@@ -34054,12 +34194,8 @@
       <c r="L256">
         <v>2.1287641299791802</v>
       </c>
-      <c r="M256">
-        <f t="shared" si="3"/>
-        <v>2.1287641299791802</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>234</v>
       </c>
@@ -34093,12 +34229,8 @@
       <c r="L257">
         <v>-3.31882212999502</v>
       </c>
-      <c r="M257">
-        <f t="shared" si="3"/>
-        <v>3.7458238889950199</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>234</v>
       </c>
@@ -34130,7 +34262,7 @@
         <v>16.5089505899522</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>234</v>
       </c>
@@ -34162,7 +34294,7 @@
         <v>6.7825329799664296</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>239</v>
       </c>
@@ -34199,12 +34331,12 @@
       <c r="L260">
         <v>4.4389026944945398</v>
       </c>
-      <c r="M260">
-        <f t="shared" ref="M260:M321" si="4">ABS(L260-C260)</f>
-        <v>3.8744370724945396</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O260">
+        <f t="shared" ref="O259:O322" si="4">ABS(H260-C260)</f>
+        <v>3.4541829280316696</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>239</v>
       </c>
@@ -34241,12 +34373,12 @@
       <c r="L261">
         <v>3.8385921182270502</v>
       </c>
-      <c r="M261">
+      <c r="O261">
         <f t="shared" si="4"/>
-        <v>3.3864426502270502</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
+        <v>3.5568043192576697</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -34268,14 +34400,21 @@
       <c r="G262">
         <v>1.6193688674073601</v>
       </c>
+      <c r="H262">
+        <v>1.18241154441592</v>
+      </c>
       <c r="J262">
         <v>1.4146209955932101</v>
       </c>
       <c r="K262">
         <v>1.22611653632579</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O262">
+        <f t="shared" si="4"/>
+        <v>2.9319034415919987E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>239</v>
       </c>
@@ -34297,14 +34436,21 @@
       <c r="G263">
         <v>0.37751416734920401</v>
       </c>
+      <c r="H263">
+        <v>-2.1118085350508398E-2</v>
+      </c>
       <c r="J263">
         <v>0.28734445397262698</v>
       </c>
       <c r="K263">
         <v>2.3437704070920499E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O263">
+        <f t="shared" si="4"/>
+        <v>0.6253415863505084</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -34333,7 +34479,7 @@
         <v>2.6271150994880998</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>239</v>
       </c>
@@ -34362,7 +34508,7 @@
         <v>-0.25467546215286302</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>239</v>
       </c>
@@ -34391,7 +34537,7 @@
         <v>3.1295203688483499</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>239</v>
       </c>
@@ -34420,7 +34566,7 @@
         <v>0.15298583716250899</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>239</v>
       </c>
@@ -34446,7 +34592,7 @@
         <v>2.6958982013481498</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>239</v>
       </c>
@@ -34472,7 +34618,7 @@
         <v>1.52878308229965</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>239</v>
       </c>
@@ -34498,7 +34644,7 @@
         <v>0.245878410585055</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>239</v>
       </c>
@@ -34524,7 +34670,7 @@
         <v>5.1721646693439602</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>239</v>
       </c>
@@ -34550,7 +34696,7 @@
         <v>9.9339868167135095E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>239</v>
       </c>
@@ -34576,7 +34722,7 @@
         <v>3.3995787201406502</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>239</v>
       </c>
@@ -34599,7 +34745,7 @@
         <v>1.0975865950481101</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>239</v>
       </c>
@@ -34622,7 +34768,7 @@
         <v>0.63571915518518796</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>239</v>
       </c>
@@ -34642,7 +34788,7 @@
         <v>-0.27020532089518301</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -34662,7 +34808,7 @@
         <v>3.9416833811716501</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>239</v>
       </c>
@@ -34682,7 +34828,7 @@
         <v>-0.22243478035761599</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>254</v>
       </c>
@@ -34713,12 +34859,8 @@
       <c r="L279">
         <v>5.4878314859762201</v>
       </c>
-      <c r="M279">
-        <f t="shared" si="4"/>
-        <v>2.4152650029762199</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -34749,12 +34891,8 @@
       <c r="L280">
         <v>3.4490510379286401</v>
       </c>
-      <c r="M280">
-        <f t="shared" si="4"/>
-        <v>0.37648455492863997</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>254</v>
       </c>
@@ -34783,7 +34921,7 @@
         <v>2.6355197882565702</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>254</v>
       </c>
@@ -34812,7 +34950,7 @@
         <v>6.96203428166427E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>254</v>
       </c>
@@ -34841,7 +34979,7 @@
         <v>2.1226682032337001</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>254</v>
       </c>
@@ -34870,7 +35008,7 @@
         <v>1.3284198015190201</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>254</v>
       </c>
@@ -34893,7 +35031,7 @@
         <v>7.4507195586610502</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>254</v>
       </c>
@@ -34916,7 +35054,7 @@
         <v>-2.6065965811994801E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>262</v>
       </c>
@@ -34953,12 +35091,12 @@
       <c r="L287">
         <v>6.5935711804741002E-4</v>
       </c>
-      <c r="M287">
+      <c r="O287">
         <f t="shared" si="4"/>
-        <v>0.99212673811804741</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.0573602325821025</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>262</v>
       </c>
@@ -34995,12 +35133,12 @@
       <c r="L288">
         <v>5.8849285140168801</v>
       </c>
-      <c r="M288">
+      <c r="O288">
         <f t="shared" si="4"/>
-        <v>7.4416990880168798</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
+        <v>7.4009400812894395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>265</v>
       </c>
@@ -35034,12 +35172,12 @@
       <c r="L289">
         <v>1.8538857140790601</v>
       </c>
-      <c r="M289">
+      <c r="O289">
         <f t="shared" si="4"/>
-        <v>8.2855291920939989E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.23012713877698987</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>265</v>
       </c>
@@ -35073,12 +35211,12 @@
       <c r="L290">
         <v>6.3636634872658302</v>
       </c>
-      <c r="M290">
+      <c r="O290">
         <f t="shared" si="4"/>
-        <v>4.4907069892658305</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
+        <v>4.5131421078307898</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -35100,14 +35238,21 @@
       <c r="G291">
         <v>4.0325043343135798</v>
       </c>
+      <c r="H291">
+        <v>4.3572243571501899</v>
+      </c>
       <c r="I291">
         <v>4.1152961201865699</v>
       </c>
       <c r="J291">
         <v>4.1252569340242102</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O291">
+        <f t="shared" si="4"/>
+        <v>1.3320375381501899</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>265</v>
       </c>
@@ -35129,14 +35274,21 @@
       <c r="G292">
         <v>5.3079527480975202</v>
       </c>
+      <c r="H292">
+        <v>5.25249875392542</v>
+      </c>
       <c r="I292">
         <v>5.9382437227114604</v>
       </c>
       <c r="J292">
         <v>5.9586850165639502</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O292">
+        <f t="shared" si="4"/>
+        <v>1.0283199819254198</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -35173,12 +35325,12 @@
       <c r="L293">
         <v>-2.6576529658463999</v>
       </c>
-      <c r="M293">
+      <c r="O293">
         <f t="shared" si="4"/>
-        <v>1.5665258061536003</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
+        <v>3.7843257001794841</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>270</v>
       </c>
@@ -35215,12 +35367,12 @@
       <c r="L294">
         <v>-3.6654089874752098</v>
       </c>
-      <c r="M294">
+      <c r="O294">
         <f t="shared" si="4"/>
-        <v>1.3779712214752098</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.8335950533525702</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>270</v>
       </c>
@@ -35242,6 +35394,9 @@
       <c r="G295">
         <v>-1.0598100086967399</v>
       </c>
+      <c r="H295">
+        <v>-2.6925482187320302</v>
+      </c>
       <c r="I295">
         <v>0.26995821734826603</v>
       </c>
@@ -35251,8 +35406,12 @@
       <c r="K295">
         <v>0.780004412714424</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O295">
+        <f t="shared" si="4"/>
+        <v>0.34132594473203026</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>270</v>
       </c>
@@ -35274,6 +35433,9 @@
       <c r="G296">
         <v>-2.0314646438574502</v>
       </c>
+      <c r="H296">
+        <v>-1.6095053532035399</v>
+      </c>
       <c r="I296">
         <v>-1.5550434762937499</v>
       </c>
@@ -35283,8 +35445,12 @@
       <c r="K296">
         <v>0.79394604083536202</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O296">
+        <f t="shared" si="4"/>
+        <v>0.41051340020353999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>275</v>
       </c>
@@ -35321,12 +35487,12 @@
       <c r="L297">
         <v>-3.1056052173576898</v>
       </c>
-      <c r="M297">
+      <c r="O297">
         <f t="shared" si="4"/>
-        <v>8.0418398357689824E-2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.71869661332917012</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>275</v>
       </c>
@@ -35363,12 +35529,12 @@
       <c r="L298">
         <v>-1.52991409506284E-2</v>
       </c>
-      <c r="M298">
+      <c r="O298">
         <f t="shared" si="4"/>
-        <v>1.0731466720493716</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.2782728187149601</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>275</v>
       </c>
@@ -35390,6 +35556,9 @@
       <c r="G299">
         <v>-4.6010888745604397E-2</v>
       </c>
+      <c r="H299">
+        <v>0.27235917544872701</v>
+      </c>
       <c r="I299">
         <v>0.25891527730618602</v>
       </c>
@@ -35399,8 +35568,12 @@
       <c r="K299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O299">
+        <f t="shared" si="4"/>
+        <v>1.4245894974487272</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>275</v>
       </c>
@@ -35422,6 +35595,9 @@
       <c r="G300">
         <v>1.7498739523209601</v>
       </c>
+      <c r="H300">
+        <v>2.7022852747133501</v>
+      </c>
       <c r="I300">
         <v>2.4748965366533402</v>
       </c>
@@ -35431,8 +35607,12 @@
       <c r="K300">
         <v>1.5113909568141</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O300">
+        <f t="shared" si="4"/>
+        <v>1.5032933217133502</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>280</v>
       </c>
@@ -35469,12 +35649,12 @@
       <c r="L301">
         <v>-3.62389203777852</v>
       </c>
-      <c r="M301">
+      <c r="O301">
         <f t="shared" si="4"/>
-        <v>1.75093553977852</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.6923005692162298</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>280</v>
       </c>
@@ -35511,12 +35691,12 @@
       <c r="L302">
         <v>-1.3453154496376101</v>
       </c>
-      <c r="M302">
+      <c r="O302">
         <f t="shared" si="4"/>
-        <v>1.40909995763761</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.4151591561326899</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>280</v>
       </c>
@@ -35538,14 +35718,21 @@
       <c r="G303">
         <v>1.20268617247775</v>
       </c>
+      <c r="H303">
+        <v>0.66969967021285803</v>
+      </c>
       <c r="I303">
         <v>0.77446031469980803</v>
       </c>
       <c r="J303">
         <v>1.30029848222066</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O303">
+        <f t="shared" si="4"/>
+        <v>0.48253065178714205</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>280</v>
       </c>
@@ -35567,14 +35754,21 @@
       <c r="G304">
         <v>1.84789201741414</v>
       </c>
+      <c r="H304">
+        <v>1.51651330546628</v>
+      </c>
       <c r="I304">
         <v>1.59935214936649</v>
       </c>
       <c r="J304">
         <v>2.2463078758869401</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O304">
+        <f t="shared" si="4"/>
+        <v>0.8347089685337199</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>285</v>
       </c>
@@ -35611,12 +35805,12 @@
       <c r="L305">
         <v>0.18191761605094101</v>
       </c>
-      <c r="M305">
+      <c r="O305">
         <f t="shared" si="4"/>
-        <v>2.1186586220509409</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.664791375295934</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>285</v>
       </c>
@@ -35653,12 +35847,12 @@
       <c r="L306">
         <v>1.6722607745517899</v>
       </c>
-      <c r="M306">
+      <c r="O306">
         <f t="shared" si="4"/>
-        <v>1.7360452825517898</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
+        <v>2.0366679439589501</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>285</v>
       </c>
@@ -35680,6 +35874,9 @@
       <c r="G307">
         <v>3.8413980533520302</v>
       </c>
+      <c r="H307">
+        <v>3.9728991813169099</v>
+      </c>
       <c r="I307">
         <v>3.4427281903257598</v>
       </c>
@@ -35689,8 +35886,12 @@
       <c r="K307">
         <v>4.3527722595093996</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O307">
+        <f t="shared" si="4"/>
+        <v>2.88445336831691</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>285</v>
       </c>
@@ -35712,6 +35913,9 @@
       <c r="G308">
         <v>5.44660580627282</v>
       </c>
+      <c r="H308">
+        <v>5.4558430672037304</v>
+      </c>
       <c r="I308">
         <v>5.7867155799188303</v>
       </c>
@@ -35721,8 +35925,12 @@
       <c r="K308">
         <v>5.1329443693536598</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O308">
+        <f t="shared" si="4"/>
+        <v>3.1684053012037303</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>290</v>
       </c>
@@ -35750,12 +35958,8 @@
       <c r="L309">
         <v>0.53233379805519598</v>
       </c>
-      <c r="M309">
-        <f t="shared" si="4"/>
-        <v>0.38712098605519596</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>290</v>
       </c>
@@ -35783,12 +35987,8 @@
       <c r="L310">
         <v>-1.86088941329137</v>
       </c>
-      <c r="M310">
-        <f t="shared" si="4"/>
-        <v>1.8206114552913699</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>290</v>
       </c>
@@ -35811,7 +36011,7 @@
         <v>-2.5626768800848301</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>290</v>
       </c>
@@ -35834,7 +36034,7 @@
         <v>5.17141702636763E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>290</v>
       </c>
@@ -35854,7 +36054,7 @@
         <v>2.9963756513279802E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>290</v>
       </c>
@@ -35874,7 +36074,7 @@
         <v>-0.74032314943819899</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>290</v>
       </c>
@@ -35891,7 +36091,7 @@
         <v>-1.1939254171011199E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>290</v>
       </c>
@@ -35908,7 +36108,7 @@
         <v>6.1870885684129</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>290</v>
       </c>
@@ -35925,7 +36125,7 @@
         <v>2.5979327954657001</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>290</v>
       </c>
@@ -35942,7 +36142,7 @@
         <v>2.5842686288185099</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>300</v>
       </c>
@@ -35979,12 +36179,12 @@
       <c r="L319">
         <v>-1.0122855732502101</v>
       </c>
-      <c r="M319">
+      <c r="O319">
         <f t="shared" si="4"/>
-        <v>0.15005718925021005</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
+        <v>0.32308085859868696</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>302</v>
       </c>
@@ -36021,12 +36221,12 @@
       <c r="L320">
         <v>-0.75173941463231098</v>
       </c>
-      <c r="M320">
+      <c r="O320">
         <f t="shared" si="4"/>
-        <v>3.084571268632311</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.8700794348174572</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>302</v>
       </c>
@@ -36063,12 +36263,12 @@
       <c r="L321">
         <v>4.7059553818407496</v>
       </c>
-      <c r="M321">
+      <c r="O321">
         <f t="shared" si="4"/>
-        <v>3.3248330288407493</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
+        <v>3.3887766512701401</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>302</v>
       </c>
@@ -36090,6 +36290,9 @@
       <c r="G322">
         <v>0.108626232400183</v>
       </c>
+      <c r="H322">
+        <v>0.294959002964296</v>
+      </c>
       <c r="I322">
         <v>-1.0068951169549101</v>
       </c>
@@ -36099,8 +36302,12 @@
       <c r="K322">
         <v>0.239636585601783</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O322">
+        <f t="shared" si="4"/>
+        <v>0.58996307003570403</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>302</v>
       </c>
@@ -36122,6 +36329,9 @@
       <c r="G323">
         <v>3.0000331202816999</v>
       </c>
+      <c r="H323">
+        <v>2.9544510025566399</v>
+      </c>
       <c r="I323">
         <v>3.38507245826194</v>
       </c>
@@ -36131,8 +36341,12 @@
       <c r="K323">
         <v>1.3358908492303201</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O323">
+        <f t="shared" ref="O323:O386" si="5">ABS(H323-C323)</f>
+        <v>1.6630525874433602</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>302</v>
       </c>
@@ -36164,7 +36378,7 @@
         <v>-0.206443015805052</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>302</v>
       </c>
@@ -36196,7 +36410,7 @@
         <v>0.109291400866004</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>302</v>
       </c>
@@ -36225,7 +36439,7 @@
         <v>-0.70447346550818102</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>302</v>
       </c>
@@ -36254,7 +36468,7 @@
         <v>0.43358140221835101</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>302</v>
       </c>
@@ -36283,7 +36497,7 @@
         <v>-3.9003284840085102</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>302</v>
       </c>
@@ -36312,7 +36526,7 @@
         <v>0.78478758033534102</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>311</v>
       </c>
@@ -36349,12 +36563,12 @@
       <c r="L330">
         <v>0.16984080579009</v>
       </c>
-      <c r="M330">
-        <f t="shared" ref="M330:M384" si="5">ABS(L330-C330)</f>
-        <v>0.33315601379008997</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O330">
+        <f t="shared" si="5"/>
+        <v>0.17256036488514473</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>311</v>
       </c>
@@ -36391,12 +36605,12 @@
       <c r="L331">
         <v>-1.00226886877871</v>
       </c>
-      <c r="M331">
+      <c r="O331">
         <f t="shared" si="5"/>
-        <v>1.0960240977787099</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.019856434304657</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>311</v>
       </c>
@@ -36418,6 +36632,9 @@
       <c r="G332">
         <v>0.55431129594339801</v>
       </c>
+      <c r="H332">
+        <v>0.52803081818935405</v>
+      </c>
       <c r="I332">
         <v>0.457399296322273</v>
       </c>
@@ -36427,8 +36644,12 @@
       <c r="K332">
         <v>1.41363281351004</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O332">
+        <f t="shared" si="5"/>
+        <v>0.761160272189354</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>311</v>
       </c>
@@ -36450,6 +36671,9 @@
       <c r="G333">
         <v>-5.8445134001294703E-2</v>
       </c>
+      <c r="H333">
+        <v>9.5748779825989894E-2</v>
+      </c>
       <c r="I333">
         <v>-8.70598918053474E-2</v>
       </c>
@@ -36459,8 +36683,12 @@
       <c r="K333">
         <v>-4.8971653186799802E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O333">
+        <f t="shared" si="5"/>
+        <v>1.9935508259898982E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>311</v>
       </c>
@@ -36492,7 +36720,7 @@
         <v>-0.57165297157589501</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>315</v>
       </c>
@@ -36529,12 +36757,12 @@
       <c r="L335">
         <v>-2.54381972308801</v>
       </c>
-      <c r="M335">
+      <c r="O335">
         <f t="shared" si="5"/>
-        <v>3.2206014990880099</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+        <v>3.3968765382460298</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>315</v>
       </c>
@@ -36571,12 +36799,12 @@
       <c r="L336">
         <v>-4.3383873620692599</v>
       </c>
-      <c r="M336">
+      <c r="O336">
         <f t="shared" si="5"/>
-        <v>5.2475949560692596</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
+        <v>5.2253661517907597</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>315</v>
       </c>
@@ -36598,6 +36826,9 @@
       <c r="G337">
         <v>0.86036420194577601</v>
       </c>
+      <c r="H337">
+        <v>-2.0502628354242901E-2</v>
+      </c>
       <c r="I337">
         <v>-0.29802814334134298</v>
       </c>
@@ -36607,8 +36838,12 @@
       <c r="K337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O337">
+        <f t="shared" si="5"/>
+        <v>0.1579664913542429</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>315</v>
       </c>
@@ -36630,6 +36865,9 @@
       <c r="G338">
         <v>-0.22741395429698</v>
       </c>
+      <c r="H338">
+        <v>-2.6766325079352098E-2</v>
+      </c>
       <c r="I338">
         <v>5.0262789430507798E-2</v>
       </c>
@@ -36639,8 +36877,12 @@
       <c r="K338">
         <v>-7.2145438984352897E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O338">
+        <f t="shared" si="5"/>
+        <v>1.4825822520793521</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>315</v>
       </c>
@@ -36672,7 +36914,7 @@
         <v>5.8965785814398197</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>315</v>
       </c>
@@ -36704,7 +36946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>315</v>
       </c>
@@ -36736,7 +36978,7 @@
         <v>-0.27010443897402098</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>315</v>
       </c>
@@ -36768,7 +37010,7 @@
         <v>1.09111955423941E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>315</v>
       </c>
@@ -36800,7 +37042,7 @@
         <v>0.74857525119618895</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>315</v>
       </c>
@@ -36832,7 +37074,7 @@
         <v>0.57564041386876796</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>315</v>
       </c>
@@ -36861,7 +37103,7 @@
         <v>0.13472757370600399</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>315</v>
       </c>
@@ -36890,7 +37132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>328</v>
       </c>
@@ -36918,12 +37160,8 @@
       <c r="L347">
         <v>1.2288841093432401</v>
       </c>
-      <c r="M347">
-        <f t="shared" si="5"/>
-        <v>0.90479323234324016</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>328</v>
       </c>
@@ -36951,12 +37189,8 @@
       <c r="L348">
         <v>0.12576591072979601</v>
       </c>
-      <c r="M348">
-        <f t="shared" si="5"/>
-        <v>1.029078403729796</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>328</v>
       </c>
@@ -36979,7 +37213,7 @@
         <v>0.23704698879928399</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>328</v>
       </c>
@@ -37002,7 +37236,7 @@
         <v>-0.71622163424817697</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>328</v>
       </c>
@@ -37016,7 +37250,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>328</v>
       </c>
@@ -37030,7 +37264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>328</v>
       </c>
@@ -37044,7 +37278,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>328</v>
       </c>
@@ -37058,7 +37292,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>335</v>
       </c>
@@ -37086,12 +37320,8 @@
       <c r="L355">
         <v>2.0688650910880302</v>
       </c>
-      <c r="M355">
-        <f t="shared" si="5"/>
-        <v>2.1092752030880302</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>335</v>
       </c>
@@ -37119,12 +37349,8 @@
       <c r="L356">
         <v>1.43595770886049</v>
       </c>
-      <c r="M356">
-        <f t="shared" si="5"/>
-        <v>7.3268364139509989E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>335</v>
       </c>
@@ -37150,7 +37376,7 @@
         <v>3.75411010699945</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>335</v>
       </c>
@@ -37176,7 +37402,7 @@
         <v>2.2815988238517</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>335</v>
       </c>
@@ -37196,7 +37422,7 @@
         <v>1.61283674738424</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>335</v>
       </c>
@@ -37216,7 +37442,7 @@
         <v>5.3888783741228501</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>335</v>
       </c>
@@ -37233,7 +37459,7 @@
         <v>0.67960432059780895</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>335</v>
       </c>
@@ -37250,7 +37476,7 @@
         <v>2.5433549646868401</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>335</v>
       </c>
@@ -37264,7 +37490,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>335</v>
       </c>
@@ -37278,7 +37504,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>335</v>
       </c>
@@ -37292,7 +37518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>335</v>
       </c>
@@ -37306,7 +37532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>335</v>
       </c>
@@ -37320,7 +37546,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>335</v>
       </c>
@@ -37334,7 +37560,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>335</v>
       </c>
@@ -37348,7 +37574,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>335</v>
       </c>
@@ -37362,7 +37588,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>335</v>
       </c>
@@ -37376,7 +37602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>335</v>
       </c>
@@ -37390,7 +37616,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>335</v>
       </c>
@@ -37404,7 +37630,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>335</v>
       </c>
@@ -37418,7 +37644,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>335</v>
       </c>
@@ -37432,7 +37658,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>335</v>
       </c>
@@ -37446,7 +37672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>335</v>
       </c>
@@ -37460,7 +37686,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>335</v>
       </c>
@@ -37474,7 +37700,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>335</v>
       </c>
@@ -37488,7 +37714,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>335</v>
       </c>
@@ -37502,7 +37728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>335</v>
       </c>
@@ -37516,7 +37742,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>335</v>
       </c>
@@ -37530,7 +37756,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>363</v>
       </c>
@@ -37567,12 +37793,12 @@
       <c r="L383">
         <v>-0.51075631300503799</v>
       </c>
-      <c r="M383">
+      <c r="O383">
         <f t="shared" si="5"/>
-        <v>1.710785894005038</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1.3194474615608949</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>363</v>
       </c>
@@ -37609,12 +37835,12 @@
       <c r="L384">
         <v>1.0678115303797799</v>
       </c>
-      <c r="M384">
+      <c r="O384">
         <f t="shared" si="5"/>
-        <v>0.57616667337977989</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0.485814565039762</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>363</v>
       </c>
@@ -37637,7 +37863,7 @@
         <v>-0.14272601229326901</v>
       </c>
       <c r="H385">
-        <v>-0.39729046514652899</v>
+        <v>-0.227861375864335</v>
       </c>
       <c r="I385">
         <v>-0.177873557325642</v>
@@ -37648,8 +37874,12 @@
       <c r="K385">
         <v>-0.29189128881744097</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O385">
+        <f t="shared" si="5"/>
+        <v>0.28962267986433499</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>363</v>
       </c>
@@ -37672,7 +37902,7 @@
         <v>1.9784651384171801</v>
       </c>
       <c r="H386">
-        <v>1.49201197353681</v>
+        <v>1.7420039192239001</v>
       </c>
       <c r="I386">
         <v>1.43578333499528</v>
@@ -37683,8 +37913,12 @@
       <c r="K386">
         <v>1.83224921367664</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O386">
+        <f t="shared" si="5"/>
+        <v>2.1424776097760998</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>363</v>
       </c>
@@ -37706,6 +37940,9 @@
       <c r="G387">
         <v>0.98438872009543199</v>
       </c>
+      <c r="H387">
+        <v>0.25220496826012301</v>
+      </c>
       <c r="I387">
         <v>1.0178886253364601</v>
       </c>
@@ -37715,8 +37952,12 @@
       <c r="K387">
         <v>0.15254654966111</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O387">
+        <f t="shared" ref="O387:O388" si="6">ABS(H387-C387)</f>
+        <v>0.69643619473987695</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>363</v>
       </c>
@@ -37738,6 +37979,9 @@
       <c r="G388">
         <v>3.4072713788355999</v>
       </c>
+      <c r="H388">
+        <v>2.6757311355870299</v>
+      </c>
       <c r="I388">
         <v>2.9881477710629198</v>
       </c>
@@ -37747,8 +37991,12 @@
       <c r="K388">
         <v>2.3570519136067101</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="O388">
+        <f t="shared" si="6"/>
+        <v>1.0471435654129699</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>363</v>
       </c>
@@ -37780,7 +38028,7 @@
         <v>-0.19602802374943101</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>363</v>
       </c>
@@ -37812,7 +38060,7 @@
         <v>3.5126893413815599</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>363</v>
       </c>
@@ -37844,7 +38092,7 @@
         <v>1.73287998551345</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>363</v>
       </c>
@@ -37876,7 +38124,7 @@
         <v>7.2236469669087394E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>363</v>
       </c>
@@ -37908,7 +38156,7 @@
         <v>3.2292070204419798</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>363</v>
       </c>
@@ -37940,7 +38188,7 @@
         <v>1.95757332899602</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>363</v>
       </c>
@@ -37972,7 +38220,7 @@
         <v>1.8345275574023101</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>363</v>
       </c>
@@ -38004,7 +38252,7 @@
         <v>2.8689001213774601</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>363</v>
       </c>
@@ -38036,7 +38284,7 @@
         <v>-0.176770279368338</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>363</v>
       </c>
@@ -38068,7 +38316,7 @@
         <v>4.7679702276434002</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>363</v>
       </c>
@@ -38100,7 +38348,7 @@
         <v>3.42585089767462</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>363</v>
       </c>
@@ -38518,7 +38766,7 @@
         <v>-2.46875820324703E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>363</v>
       </c>
@@ -38538,7 +38786,7 @@
         <v>-3.5690589221712699E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>363</v>
       </c>
@@ -38558,7 +38806,7 @@
         <v>-0.71009588311449001</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>363</v>
       </c>
@@ -38578,7 +38826,7 @@
         <v>1.6218985479690601E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>378</v>
       </c>
@@ -38603,12 +38851,8 @@
       <c r="L420">
         <v>-0.903279956219594</v>
       </c>
-      <c r="M420">
-        <f t="shared" ref="M420:M430" si="6">ABS(L420-C420)</f>
-        <v>0.77949808921959396</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>378</v>
       </c>
@@ -38633,12 +38877,8 @@
       <c r="L421">
         <v>1.1863670678679601</v>
       </c>
-      <c r="M421">
-        <f t="shared" si="6"/>
-        <v>1.1789543838679601</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>378</v>
       </c>
@@ -38658,7 +38898,7 @@
         <v>-0.105111008432095</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>378</v>
       </c>
@@ -38678,7 +38918,7 @@
         <v>-0.11968725716909</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>378</v>
       </c>
@@ -38695,7 +38935,7 @@
         <v>-1.4788898261352299E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>378</v>
       </c>
@@ -38712,7 +38952,7 @@
         <v>0.66125751384265896</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>378</v>
       </c>
@@ -38726,7 +38966,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>378</v>
       </c>
@@ -38740,7 +38980,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>378</v>
       </c>
@@ -38754,7 +38994,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>389</v>
       </c>
@@ -38782,12 +39022,8 @@
       <c r="L429">
         <v>-0.67631603518029804</v>
       </c>
-      <c r="M429">
-        <f t="shared" si="6"/>
-        <v>8.8587255180298086E-2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>389</v>
       </c>
@@ -38815,12 +39051,8 @@
       <c r="L430">
         <v>-0.69734080456487302</v>
       </c>
-      <c r="M430">
-        <f t="shared" si="6"/>
-        <v>1.5031801635648732</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>389</v>
       </c>
@@ -38840,7 +39072,7 @@
         <v>0.13319677306108099</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>389</v>
       </c>
@@ -39007,7 +39239,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39053,7 +39285,7 @@
       </c>
       <c r="B5">
         <f>PEARSON(Sheet1!C:C, Sheet1!H:H)</f>
-        <v>0.51907340801591118</v>
+        <v>0.59270643099884457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -39092,8 +39324,8 @@
         <v>0.55726755506560344</v>
       </c>
       <c r="C9">
-        <f>AVERAGE(Sheet1!M:M)</f>
-        <v>1.5520417548812238</v>
+        <f>AVERAGE(Sheet1!O:O)</f>
+        <v>1.4695697223382391</v>
       </c>
     </row>
   </sheetData>

--- a/FLEX_RUNS.xlsx
+++ b/FLEX_RUNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kyroyo\rosetta-antibody-ddgs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F98E5F-A92D-4F48-8916-7E9A17507379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD4F15-4C8A-45BF-A5E9-944C6C5FE231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ddg_run_12_3_r_FLEX" sheetId="1" r:id="rId1"/>
@@ -18503,7 +18503,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E9E3F1BD-F665-4720-8DBA-8608855B5472}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28126,7 +28126,7 @@
         <v>2.0452196819999999</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="0">ABS(H3-C3)</f>
+        <f t="shared" ref="O3:O65" si="0">ABS(H3-C3)</f>
         <v>2.9648493754018204</v>
       </c>
     </row>
@@ -30102,7 +30102,7 @@
         <v>5.4822437927943604</v>
       </c>
       <c r="O93">
-        <f t="shared" ref="O67:O130" si="1">ABS(H93-C93)</f>
+        <f t="shared" ref="O93:O98" si="1">ABS(H93-C93)</f>
         <v>1.68446475462888</v>
       </c>
     </row>
@@ -31211,7 +31211,7 @@
         <v>0.115690236337604</v>
       </c>
       <c r="O133">
-        <f t="shared" ref="O131:O194" si="2">ABS(H133-C133)</f>
+        <f t="shared" ref="O133:O136" si="2">ABS(H133-C133)</f>
         <v>0.1290030133388973</v>
       </c>
     </row>
@@ -33465,7 +33465,7 @@
         <v>1.9342531020520199</v>
       </c>
       <c r="O232">
-        <f t="shared" ref="O195:O258" si="3">ABS(H232-C232)</f>
+        <f t="shared" ref="O232:O255" si="3">ABS(H232-C232)</f>
         <v>0.55594624349909028</v>
       </c>
     </row>
@@ -34332,7 +34332,7 @@
         <v>4.4389026944945398</v>
       </c>
       <c r="O260">
-        <f t="shared" ref="O259:O322" si="4">ABS(H260-C260)</f>
+        <f t="shared" ref="O260:O322" si="4">ABS(H260-C260)</f>
         <v>3.4541829280316696</v>
       </c>
     </row>
@@ -39238,8 +39238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283CCA3F-6521-487A-843F-907DCE41724E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39287,6 +39287,10 @@
         <f>PEARSON(Sheet1!C:C, Sheet1!H:H)</f>
         <v>0.59270643099884457</v>
       </c>
+      <c r="C5">
+        <f>AVERAGE(Sheet1!O:O)</f>
+        <v>1.4695697223382391</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -39322,10 +39326,6 @@
       <c r="B9">
         <f>PEARSON(Sheet1!L:L, Sheet1!C:C)</f>
         <v>0.55726755506560344</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(Sheet1!O:O)</f>
-        <v>1.4695697223382391</v>
       </c>
     </row>
   </sheetData>
